--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\the-ab-repositories\DSA-Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BA18C2-0C15-4088-BC8A-F7B69D93BD7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEF3E13-336D-488B-95C0-BA62292EE2AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
   <si>
     <t>Array</t>
   </si>
@@ -633,13 +633,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +653,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -661,12 +661,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -674,7 +677,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -682,407 +685,407 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="82" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" ht="102" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="203" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="41" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="41" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="145" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" ht="144" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>84</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\the-ab-repositories\DSA-Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEF3E13-336D-488B-95C0-BA62292EE2AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A1F3F8-B0AB-4F3E-AC04-A8E1AE5977AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
   <si>
     <t>Array</t>
   </si>
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,6 +688,9 @@
     <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\the-ab-repositories\DSA-Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A1F3F8-B0AB-4F3E-AC04-A8E1AE5977AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75558DDC-2822-4E76-8C23-ED0FDD6E4303}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
   <si>
     <t>Array</t>
   </si>
@@ -292,13 +292,16 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Revised other people's submissions?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +319,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -342,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -350,6 +361,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -631,15 +643,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="20.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,8 +664,11 @@
       <c r="D1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -661,7 +676,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -669,7 +684,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -677,7 +692,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -685,7 +700,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -693,402 +708,405 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="20.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="102" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="82" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" ht="20.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" ht="58" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" ht="203" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" ht="41" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" ht="116" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" ht="41" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" ht="58" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" ht="58" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" ht="87" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" ht="20.5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" ht="20.5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" ht="87" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" ht="58" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" ht="116" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" ht="20.5" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" ht="87" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" ht="58" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" ht="87" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" ht="87" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" ht="87" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" ht="58" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="144" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" ht="145" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" ht="87" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" ht="87" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" ht="58" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" ht="58" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" ht="20.5" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" ht="58" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>84</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\the-ab-repositories\DSA-Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75558DDC-2822-4E76-8C23-ED0FDD6E4303}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970D7E40-A7E6-4ADB-902B-1DB7DC9456D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
   <si>
     <t>Array</t>
   </si>
@@ -646,7 +646,7 @@
   <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -719,6 +719,9 @@
     <row r="8" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\the-ab-repositories\DSA-Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970D7E40-A7E6-4ADB-902B-1DB7DC9456D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ECEE9D-50F5-4C95-BF69-96CC0645B60F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
   <si>
     <t>Array</t>
   </si>
@@ -646,7 +646,7 @@
   <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -727,6 +727,9 @@
     <row r="9" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\the-ab-repositories\DSA-Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ECEE9D-50F5-4C95-BF69-96CC0645B60F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812CE198-D0E9-4567-A23F-A4A00E181F58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
   <si>
     <t>Array</t>
   </si>
@@ -285,9 +285,6 @@
     <t>Completion Status</t>
   </si>
   <si>
-    <t>Pseudocode</t>
-  </si>
-  <si>
     <t>Difficulty</t>
   </si>
   <si>
@@ -295,6 +292,18 @@
   </si>
   <si>
     <t>Revised other people's submissions?</t>
+  </si>
+  <si>
+    <t>Runtime beats</t>
+  </si>
+  <si>
+    <t>Memory beats</t>
+  </si>
+  <si>
+    <t>Clean code?</t>
+  </si>
+  <si>
+    <t>Yeah, fine</t>
   </si>
 </sst>
 </file>
@@ -353,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -362,6 +371,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -643,558 +655,828 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="K112" sqref="K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:7" ht="61.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>86</v>
       </c>
       <c r="B1" t="s">
         <v>85</v>
       </c>
-      <c r="C1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="D10" s="4">
+        <v>0.1477</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="82" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="24" spans="3:6" ht="82" x14ac:dyDescent="0.35">
+      <c r="C24" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C27" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C28" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="C29" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C30" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C31" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C32" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C33" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C34" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C35" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="39" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="C39" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C40" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C41" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="C42" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C43" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C44" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="3:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="C45" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="3:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="C46" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="203" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="3:6" ht="203" x14ac:dyDescent="0.35">
+      <c r="C47" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="41" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="51" spans="3:6" ht="41" x14ac:dyDescent="0.35">
+      <c r="C51" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C52" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C53" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C54" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="3:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="C55" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="116" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="3:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="C56" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="41" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="60" spans="3:6" ht="41" x14ac:dyDescent="0.35">
+      <c r="C60" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="C61" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C62" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="C63" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="C64" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="C65" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C66" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="70" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="C70" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="2" t="s">
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C71" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C72" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A73" s="2" t="s">
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C73" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C74" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="78" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="C78" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="2" t="s">
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="3:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="C79" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="2" t="s">
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="3:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="C80" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A81" s="2" t="s">
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="C81" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C82" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="2" t="s">
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C83" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A84" s="2" t="s">
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C84" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="2" t="s">
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C85" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="2" t="s">
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C86" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A87" s="2" t="s">
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="C87" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" ht="116" x14ac:dyDescent="0.35">
-      <c r="A88" s="2" t="s">
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+    </row>
+    <row r="88" spans="3:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="C88" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+    </row>
+    <row r="92" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="C92" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A93" s="2" t="s">
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="C93" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A94" s="2" t="s">
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C94" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A95" s="2" t="s">
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+    </row>
+    <row r="95" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="C95" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A96" s="2" t="s">
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="C96" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A97" s="2" t="s">
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+    </row>
+    <row r="97" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="C97" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A98" s="2" t="s">
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="C98" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A99" s="2" t="s">
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="C99" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="145" x14ac:dyDescent="0.35">
-      <c r="A100" s="2" t="s">
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="3:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="C100" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="2" t="s">
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+    </row>
+    <row r="101" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C101" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A102" s="2" t="s">
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+    </row>
+    <row r="102" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="C102" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A103" s="2" t="s">
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="C103" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A104" s="2" t="s">
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="C104" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A105" s="2" t="s">
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="C105" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="2" t="s">
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C106" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+    </row>
+    <row r="110" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="C110" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A111" s="2" t="s">
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="C111" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A112" s="2" t="s">
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+    </row>
+    <row r="112" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C112" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A113" s="2" t="s">
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+    </row>
+    <row r="113" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C113" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://leetcode.com/problems/two-sum/" xr:uid="{4EE1A70F-1209-4737-8A5E-F9C86A63BE3D}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/" xr:uid="{FB390D55-001D-4AEA-B0EF-CEE36A912994}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://leetcode.com/problems/contains-duplicate/" xr:uid="{C39ECF59-E530-4FEB-9C35-FB4DF7787658}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://leetcode.com/problems/product-of-array-except-self/" xr:uid="{3EC048F5-0203-4811-A219-8439C2F92EC3}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://leetcode.com/problems/maximum-subarray/" xr:uid="{3BE3E832-BF02-49B8-BAD0-F0D2BD8792B3}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://leetcode.com/problems/maximum-product-subarray/" xr:uid="{7E51DAB6-1287-4753-8073-3DE57E8129C9}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{834674BC-78ED-407F-9863-B46CB4BD323C}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://leetcode.com/problems/search-in-rotated-sorted-array/" xr:uid="{F1A591BA-A58A-43F7-849C-D5DE36DB5DF5}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://leetcode.com/problems/3sum/" xr:uid="{832E79DB-0D22-43A1-823B-8E7D39B8A293}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://leetcode.com/problems/container-with-most-water/" xr:uid="{B83F01EE-C395-4929-9A6E-5CFFF5E2FF86}"/>
-    <hyperlink ref="A16" r:id="rId11" display="https://leetcode.com/problems/sum-of-two-integers/" xr:uid="{7296A078-EE2A-4A38-B9D9-5FAB8EF262A9}"/>
-    <hyperlink ref="A17" r:id="rId12" display="https://leetcode.com/problems/number-of-1-bits/" xr:uid="{F83207BF-B483-40E5-A655-339C103C58CF}"/>
-    <hyperlink ref="A18" r:id="rId13" display="https://leetcode.com/problems/counting-bits/" xr:uid="{4E9CCA4E-9CB4-4532-9B43-E4EFAB8F1FCE}"/>
-    <hyperlink ref="A19" r:id="rId14" display="https://leetcode.com/problems/missing-number/" xr:uid="{3599271C-7C25-4456-A40E-7A55E5794616}"/>
-    <hyperlink ref="A20" r:id="rId15" display="https://leetcode.com/problems/reverse-bits/" xr:uid="{3249B9A4-9499-479A-BCDC-B2AFDBC33355}"/>
-    <hyperlink ref="A25" r:id="rId16" display="https://leetcode.com/problems/climbing-stairs/" xr:uid="{F81CD639-7D48-4EE3-BCFF-7593702428AF}"/>
-    <hyperlink ref="A26" r:id="rId17" display="https://leetcode.com/problems/coin-change/" xr:uid="{CB80F187-5A09-43C7-B122-D14207A8CF8F}"/>
-    <hyperlink ref="A27" r:id="rId18" display="https://leetcode.com/problems/longest-increasing-subsequence/" xr:uid="{FCAF0D82-0A14-4AAD-893E-D2C8E5A94544}"/>
-    <hyperlink ref="A28" r:id="rId19" display="https://leetcode.com/problems/longest-common-subsequence/" xr:uid="{FB586171-96F2-4470-9D1D-022DA6F6ADF7}"/>
-    <hyperlink ref="A29" r:id="rId20" display="https://leetcode.com/problems/word-break/" xr:uid="{4E530E0D-7755-4687-A2A9-2B3EA80482AF}"/>
-    <hyperlink ref="A30" r:id="rId21" display="https://leetcode.com/problems/combination-sum-iv/" xr:uid="{038721E7-4FF9-4F9F-AAF8-1AA09BF63620}"/>
-    <hyperlink ref="A31" r:id="rId22" display="https://leetcode.com/problems/house-robber/" xr:uid="{CD4CA5A3-C005-432B-A8FA-9AEEC5A847B3}"/>
-    <hyperlink ref="A32" r:id="rId23" display="https://leetcode.com/problems/house-robber-ii/" xr:uid="{54F018DB-8077-42B2-85BA-BC21004ED9A0}"/>
-    <hyperlink ref="A33" r:id="rId24" display="https://leetcode.com/problems/decode-ways/" xr:uid="{1053B16B-6CD7-4DEC-A360-EAA11473D587}"/>
-    <hyperlink ref="A34" r:id="rId25" display="https://leetcode.com/problems/unique-paths/" xr:uid="{8F7A18B4-74C5-4686-A16C-6E969FF32E19}"/>
-    <hyperlink ref="A35" r:id="rId26" display="https://leetcode.com/problems/jump-game/" xr:uid="{4F9F4CE2-1AE0-4C96-BA77-9DAB514482FD}"/>
-    <hyperlink ref="A40" r:id="rId27" display="https://leetcode.com/problems/clone-graph/" xr:uid="{F01EBD97-2902-4516-91E9-2D620BAE5AB0}"/>
-    <hyperlink ref="A41" r:id="rId28" display="https://leetcode.com/problems/course-schedule/" xr:uid="{644F8D09-F0F0-4B3A-84FB-31FD5CF03285}"/>
-    <hyperlink ref="A42" r:id="rId29" display="https://leetcode.com/problems/pacific-atlantic-water-flow/" xr:uid="{CE401F07-897F-4E0B-A834-388337C602F0}"/>
-    <hyperlink ref="A43" r:id="rId30" display="https://leetcode.com/problems/number-of-islands/" xr:uid="{7CA546EC-5FC4-46D8-8149-46A2D00871AB}"/>
-    <hyperlink ref="A44" r:id="rId31" display="https://leetcode.com/problems/longest-consecutive-sequence/" xr:uid="{85EA1920-B56D-4BFC-832B-349DF0D79BF5}"/>
-    <hyperlink ref="A45" r:id="rId32" display="https://leetcode.com/problems/alien-dictionary/" xr:uid="{1292ECB5-4BA2-4225-BC74-FFBDF01D106F}"/>
-    <hyperlink ref="A46" r:id="rId33" display="https://leetcode.com/problems/graph-valid-tree/" xr:uid="{7171E922-874F-413F-82F9-A29B690B024B}"/>
-    <hyperlink ref="A47" r:id="rId34" display="https://leetcode.com/problems/number-of-connected-components-in-an-undirected-graph/" xr:uid="{0D9CB2F7-40CC-4500-B95D-81612018D7FF}"/>
-    <hyperlink ref="A52" r:id="rId35" display="https://leetcode.com/problems/insert-interval/" xr:uid="{365CE14D-9DF8-49FD-8D46-C5AB3D860E6A}"/>
-    <hyperlink ref="A53" r:id="rId36" display="https://leetcode.com/problems/merge-intervals/" xr:uid="{0257C383-CEFB-48BA-A7A1-BB5B8919F41A}"/>
-    <hyperlink ref="A54" r:id="rId37" display="https://leetcode.com/problems/non-overlapping-intervals/" xr:uid="{809C7CC9-7776-407C-B031-4B906741D40D}"/>
-    <hyperlink ref="A55" r:id="rId38" display="https://leetcode.com/problems/meeting-rooms/" xr:uid="{48F5E663-BDC6-43B9-A5A5-C91CCF766FE5}"/>
-    <hyperlink ref="A56" r:id="rId39" display="https://leetcode.com/problems/meeting-rooms-ii/" xr:uid="{81F551A1-BA85-4F71-9F67-4560CFB914D0}"/>
-    <hyperlink ref="A61" r:id="rId40" display="https://leetcode.com/problems/reverse-linked-list/" xr:uid="{F775F266-D01E-4BC5-B7E7-82C253939DD4}"/>
-    <hyperlink ref="A62" r:id="rId41" display="https://leetcode.com/problems/linked-list-cycle/" xr:uid="{B34F8A50-B957-496A-866D-7C5D899A1B40}"/>
-    <hyperlink ref="A63" r:id="rId42" display="https://leetcode.com/problems/merge-two-sorted-lists/" xr:uid="{7D44C468-2BC2-4208-960C-D7BE57F39C70}"/>
-    <hyperlink ref="A64" r:id="rId43" display="https://leetcode.com/problems/merge-k-sorted-lists/" xr:uid="{562AEAD3-5E02-4849-8A6A-C70A90A4D0BF}"/>
-    <hyperlink ref="A65" r:id="rId44" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/" xr:uid="{4C82FC7F-7228-49E0-A482-B274FAD22BF8}"/>
-    <hyperlink ref="A66" r:id="rId45" display="https://leetcode.com/problems/reorder-list/" xr:uid="{C5F35472-3B29-489D-80FB-221E005EA278}"/>
-    <hyperlink ref="A71" r:id="rId46" display="https://leetcode.com/problems/set-matrix-zeroes/" xr:uid="{E7F822B3-51D8-4B0B-96D0-7E9AC484E4CB}"/>
-    <hyperlink ref="A72" r:id="rId47" display="https://leetcode.com/problems/spiral-matrix/" xr:uid="{0D5A2E80-F8D6-4D69-9946-A9FAC8E5F6BC}"/>
-    <hyperlink ref="A73" r:id="rId48" display="https://leetcode.com/problems/rotate-image/" xr:uid="{1540FB4C-CEE1-437E-B813-EC577D53A784}"/>
-    <hyperlink ref="A74" r:id="rId49" display="https://leetcode.com/problems/word-search/" xr:uid="{75DA5216-551C-4C70-AD50-852F1527A128}"/>
-    <hyperlink ref="A79" r:id="rId50" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/" xr:uid="{E8633DA2-F9DD-4C56-84F4-B0E8B1F1AF84}"/>
-    <hyperlink ref="A80" r:id="rId51" display="https://leetcode.com/problems/longest-repeating-character-replacement/" xr:uid="{F00581FD-BF53-4C3D-9223-F8434089C625}"/>
-    <hyperlink ref="A81" r:id="rId52" display="https://leetcode.com/problems/minimum-window-substring/" xr:uid="{8CAE6FDF-E933-4267-9124-4D244F8272C0}"/>
-    <hyperlink ref="A82" r:id="rId53" display="https://leetcode.com/problems/valid-anagram/" xr:uid="{95767628-AC61-48DE-A72E-C2AEC5355F20}"/>
-    <hyperlink ref="A83" r:id="rId54" display="https://leetcode.com/problems/group-anagrams/" xr:uid="{28D0FCA2-AE8F-45DF-858C-83C8D969B0C3}"/>
-    <hyperlink ref="A84" r:id="rId55" display="https://leetcode.com/problems/valid-parentheses/" xr:uid="{7ADD12A1-9EC7-4636-9F8F-90948148317C}"/>
-    <hyperlink ref="A85" r:id="rId56" display="https://leetcode.com/problems/valid-palindrome/" xr:uid="{2BAE87D2-0406-40CF-9546-2FE8116A408E}"/>
-    <hyperlink ref="A86" r:id="rId57" display="https://leetcode.com/problems/longest-palindromic-substring/" xr:uid="{3C9B94EE-97B1-459A-BE04-57B4F9381063}"/>
-    <hyperlink ref="A87" r:id="rId58" display="https://leetcode.com/problems/palindromic-substrings/" xr:uid="{DFD13D32-6B37-45E4-8963-2F2B45EF0303}"/>
-    <hyperlink ref="A88" r:id="rId59" display="https://leetcode.com/problems/encode-and-decode-strings/" xr:uid="{6DC2FD38-E55D-4165-A315-91EE1BAF5DDE}"/>
-    <hyperlink ref="A93" r:id="rId60" display="https://leetcode.com/problems/maximum-depth-of-binary-tree/" xr:uid="{78AA3887-B2B4-48DF-AA28-5F1DC8D1BA96}"/>
-    <hyperlink ref="A94" r:id="rId61" display="https://leetcode.com/problems/same-tree/" xr:uid="{A16BB67B-FAD1-48A3-9CF9-0F59A8E5D1D7}"/>
-    <hyperlink ref="A95" r:id="rId62" display="https://leetcode.com/problems/invert-binary-tree/" xr:uid="{A9B962FF-63D8-429A-8359-32E3703A386F}"/>
-    <hyperlink ref="A96" r:id="rId63" display="https://leetcode.com/problems/binary-tree-maximum-path-sum/" xr:uid="{B0405526-CF57-4FE4-A45D-0D8835303D32}"/>
-    <hyperlink ref="A97" r:id="rId64" display="https://leetcode.com/problems/binary-tree-level-order-traversal/" xr:uid="{DC4BFCFA-28D6-4EF1-BEF4-F2AA77A3F817}"/>
-    <hyperlink ref="A98" r:id="rId65" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree/" xr:uid="{3036FF3F-61FB-44D1-AB1D-A186159FE296}"/>
-    <hyperlink ref="A99" r:id="rId66" display="https://leetcode.com/problems/subtree-of-another-tree/" xr:uid="{42CCB046-B960-40CB-8638-176CAF86BA0C}"/>
-    <hyperlink ref="A100" r:id="rId67" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{75821F03-953E-4DCA-BAE1-118052FB34CD}"/>
-    <hyperlink ref="A101" r:id="rId68" display="https://leetcode.com/problems/validate-binary-search-tree/" xr:uid="{EF7DBB45-5E01-4A92-906C-77EF4A3A43AF}"/>
-    <hyperlink ref="A102" r:id="rId69" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst/" xr:uid="{95487A18-1E9A-4CB0-A500-445E4ED9B13C}"/>
-    <hyperlink ref="A103" r:id="rId70" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/" xr:uid="{9D9CC895-1B66-4285-8160-E55243A122C4}"/>
-    <hyperlink ref="A104" r:id="rId71" display="https://leetcode.com/problems/implement-trie-prefix-tree/" xr:uid="{73482DD6-0A9E-48CA-92CC-B03851A58E71}"/>
-    <hyperlink ref="A105" r:id="rId72" display="https://leetcode.com/problems/add-and-search-word-data-structure-design/" xr:uid="{41F16458-9A08-40A4-A4B3-8F62C5662A2C}"/>
-    <hyperlink ref="A106" r:id="rId73" display="https://leetcode.com/problems/word-search-ii/" xr:uid="{165E93FD-C479-4F2E-B56C-C9D5DF18248D}"/>
-    <hyperlink ref="A111" r:id="rId74" display="https://leetcode.com/problems/merge-k-sorted-lists/" xr:uid="{91D6F8AE-F94C-4CA4-A8F9-8783077FC5F5}"/>
-    <hyperlink ref="A112" r:id="rId75" display="https://leetcode.com/problems/top-k-frequent-elements/" xr:uid="{6BC19388-F0AA-47F2-AC6F-0E65250D19ED}"/>
-    <hyperlink ref="A113" r:id="rId76" display="https://leetcode.com/problems/find-median-from-data-stream/" xr:uid="{D2ED0338-1985-4AC6-906F-D770ED15DDD3}"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://leetcode.com/problems/two-sum/" xr:uid="{4EE1A70F-1209-4737-8A5E-F9C86A63BE3D}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/" xr:uid="{FB390D55-001D-4AEA-B0EF-CEE36A912994}"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://leetcode.com/problems/contains-duplicate/" xr:uid="{C39ECF59-E530-4FEB-9C35-FB4DF7787658}"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://leetcode.com/problems/product-of-array-except-self/" xr:uid="{3EC048F5-0203-4811-A219-8439C2F92EC3}"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://leetcode.com/problems/maximum-subarray/" xr:uid="{3BE3E832-BF02-49B8-BAD0-F0D2BD8792B3}"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://leetcode.com/problems/maximum-product-subarray/" xr:uid="{7E51DAB6-1287-4753-8073-3DE57E8129C9}"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{834674BC-78ED-407F-9863-B46CB4BD323C}"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://leetcode.com/problems/search-in-rotated-sorted-array/" xr:uid="{F1A591BA-A58A-43F7-849C-D5DE36DB5DF5}"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://leetcode.com/problems/3sum/" xr:uid="{832E79DB-0D22-43A1-823B-8E7D39B8A293}"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://leetcode.com/problems/container-with-most-water/" xr:uid="{B83F01EE-C395-4929-9A6E-5CFFF5E2FF86}"/>
+    <hyperlink ref="C16" r:id="rId11" display="https://leetcode.com/problems/sum-of-two-integers/" xr:uid="{7296A078-EE2A-4A38-B9D9-5FAB8EF262A9}"/>
+    <hyperlink ref="C17" r:id="rId12" display="https://leetcode.com/problems/number-of-1-bits/" xr:uid="{F83207BF-B483-40E5-A655-339C103C58CF}"/>
+    <hyperlink ref="C18" r:id="rId13" display="https://leetcode.com/problems/counting-bits/" xr:uid="{4E9CCA4E-9CB4-4532-9B43-E4EFAB8F1FCE}"/>
+    <hyperlink ref="C19" r:id="rId14" display="https://leetcode.com/problems/missing-number/" xr:uid="{3599271C-7C25-4456-A40E-7A55E5794616}"/>
+    <hyperlink ref="C20" r:id="rId15" display="https://leetcode.com/problems/reverse-bits/" xr:uid="{3249B9A4-9499-479A-BCDC-B2AFDBC33355}"/>
+    <hyperlink ref="C25" r:id="rId16" display="https://leetcode.com/problems/climbing-stairs/" xr:uid="{F81CD639-7D48-4EE3-BCFF-7593702428AF}"/>
+    <hyperlink ref="C26" r:id="rId17" display="https://leetcode.com/problems/coin-change/" xr:uid="{CB80F187-5A09-43C7-B122-D14207A8CF8F}"/>
+    <hyperlink ref="C27" r:id="rId18" display="https://leetcode.com/problems/longest-increasing-subsequence/" xr:uid="{FCAF0D82-0A14-4AAD-893E-D2C8E5A94544}"/>
+    <hyperlink ref="C28" r:id="rId19" display="https://leetcode.com/problems/longest-common-subsequence/" xr:uid="{FB586171-96F2-4470-9D1D-022DA6F6ADF7}"/>
+    <hyperlink ref="C29" r:id="rId20" display="https://leetcode.com/problems/word-break/" xr:uid="{4E530E0D-7755-4687-A2A9-2B3EA80482AF}"/>
+    <hyperlink ref="C30" r:id="rId21" display="https://leetcode.com/problems/combination-sum-iv/" xr:uid="{038721E7-4FF9-4F9F-AAF8-1AA09BF63620}"/>
+    <hyperlink ref="C31" r:id="rId22" display="https://leetcode.com/problems/house-robber/" xr:uid="{CD4CA5A3-C005-432B-A8FA-9AEEC5A847B3}"/>
+    <hyperlink ref="C32" r:id="rId23" display="https://leetcode.com/problems/house-robber-ii/" xr:uid="{54F018DB-8077-42B2-85BA-BC21004ED9A0}"/>
+    <hyperlink ref="C33" r:id="rId24" display="https://leetcode.com/problems/decode-ways/" xr:uid="{1053B16B-6CD7-4DEC-A360-EAA11473D587}"/>
+    <hyperlink ref="C34" r:id="rId25" display="https://leetcode.com/problems/unique-paths/" xr:uid="{8F7A18B4-74C5-4686-A16C-6E969FF32E19}"/>
+    <hyperlink ref="C35" r:id="rId26" display="https://leetcode.com/problems/jump-game/" xr:uid="{4F9F4CE2-1AE0-4C96-BA77-9DAB514482FD}"/>
+    <hyperlink ref="C40" r:id="rId27" display="https://leetcode.com/problems/clone-graph/" xr:uid="{F01EBD97-2902-4516-91E9-2D620BAE5AB0}"/>
+    <hyperlink ref="C41" r:id="rId28" display="https://leetcode.com/problems/course-schedule/" xr:uid="{644F8D09-F0F0-4B3A-84FB-31FD5CF03285}"/>
+    <hyperlink ref="C42" r:id="rId29" display="https://leetcode.com/problems/pacific-atlantic-water-flow/" xr:uid="{CE401F07-897F-4E0B-A834-388337C602F0}"/>
+    <hyperlink ref="C43" r:id="rId30" display="https://leetcode.com/problems/number-of-islands/" xr:uid="{7CA546EC-5FC4-46D8-8149-46A2D00871AB}"/>
+    <hyperlink ref="C44" r:id="rId31" display="https://leetcode.com/problems/longest-consecutive-sequence/" xr:uid="{85EA1920-B56D-4BFC-832B-349DF0D79BF5}"/>
+    <hyperlink ref="C45" r:id="rId32" display="https://leetcode.com/problems/alien-dictionary/" xr:uid="{1292ECB5-4BA2-4225-BC74-FFBDF01D106F}"/>
+    <hyperlink ref="C46" r:id="rId33" display="https://leetcode.com/problems/graph-valid-tree/" xr:uid="{7171E922-874F-413F-82F9-A29B690B024B}"/>
+    <hyperlink ref="C47" r:id="rId34" display="https://leetcode.com/problems/number-of-connected-components-in-an-undirected-graph/" xr:uid="{0D9CB2F7-40CC-4500-B95D-81612018D7FF}"/>
+    <hyperlink ref="C52" r:id="rId35" display="https://leetcode.com/problems/insert-interval/" xr:uid="{365CE14D-9DF8-49FD-8D46-C5AB3D860E6A}"/>
+    <hyperlink ref="C53" r:id="rId36" display="https://leetcode.com/problems/merge-intervals/" xr:uid="{0257C383-CEFB-48BA-A7A1-BB5B8919F41A}"/>
+    <hyperlink ref="C54" r:id="rId37" display="https://leetcode.com/problems/non-overlapping-intervals/" xr:uid="{809C7CC9-7776-407C-B031-4B906741D40D}"/>
+    <hyperlink ref="C55" r:id="rId38" display="https://leetcode.com/problems/meeting-rooms/" xr:uid="{48F5E663-BDC6-43B9-A5A5-C91CCF766FE5}"/>
+    <hyperlink ref="C56" r:id="rId39" display="https://leetcode.com/problems/meeting-rooms-ii/" xr:uid="{81F551A1-BA85-4F71-9F67-4560CFB914D0}"/>
+    <hyperlink ref="C61" r:id="rId40" display="https://leetcode.com/problems/reverse-linked-list/" xr:uid="{F775F266-D01E-4BC5-B7E7-82C253939DD4}"/>
+    <hyperlink ref="C62" r:id="rId41" display="https://leetcode.com/problems/linked-list-cycle/" xr:uid="{B34F8A50-B957-496A-866D-7C5D899A1B40}"/>
+    <hyperlink ref="C63" r:id="rId42" display="https://leetcode.com/problems/merge-two-sorted-lists/" xr:uid="{7D44C468-2BC2-4208-960C-D7BE57F39C70}"/>
+    <hyperlink ref="C64" r:id="rId43" display="https://leetcode.com/problems/merge-k-sorted-lists/" xr:uid="{562AEAD3-5E02-4849-8A6A-C70A90A4D0BF}"/>
+    <hyperlink ref="C65" r:id="rId44" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/" xr:uid="{4C82FC7F-7228-49E0-A482-B274FAD22BF8}"/>
+    <hyperlink ref="C66" r:id="rId45" display="https://leetcode.com/problems/reorder-list/" xr:uid="{C5F35472-3B29-489D-80FB-221E005EA278}"/>
+    <hyperlink ref="C71" r:id="rId46" display="https://leetcode.com/problems/set-matrix-zeroes/" xr:uid="{E7F822B3-51D8-4B0B-96D0-7E9AC484E4CB}"/>
+    <hyperlink ref="C72" r:id="rId47" display="https://leetcode.com/problems/spiral-matrix/" xr:uid="{0D5A2E80-F8D6-4D69-9946-A9FAC8E5F6BC}"/>
+    <hyperlink ref="C73" r:id="rId48" display="https://leetcode.com/problems/rotate-image/" xr:uid="{1540FB4C-CEE1-437E-B813-EC577D53A784}"/>
+    <hyperlink ref="C74" r:id="rId49" display="https://leetcode.com/problems/word-search/" xr:uid="{75DA5216-551C-4C70-AD50-852F1527A128}"/>
+    <hyperlink ref="C79" r:id="rId50" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/" xr:uid="{E8633DA2-F9DD-4C56-84F4-B0E8B1F1AF84}"/>
+    <hyperlink ref="C80" r:id="rId51" display="https://leetcode.com/problems/longest-repeating-character-replacement/" xr:uid="{F00581FD-BF53-4C3D-9223-F8434089C625}"/>
+    <hyperlink ref="C81" r:id="rId52" display="https://leetcode.com/problems/minimum-window-substring/" xr:uid="{8CAE6FDF-E933-4267-9124-4D244F8272C0}"/>
+    <hyperlink ref="C82" r:id="rId53" display="https://leetcode.com/problems/valid-anagram/" xr:uid="{95767628-AC61-48DE-A72E-C2AEC5355F20}"/>
+    <hyperlink ref="C83" r:id="rId54" display="https://leetcode.com/problems/group-anagrams/" xr:uid="{28D0FCA2-AE8F-45DF-858C-83C8D969B0C3}"/>
+    <hyperlink ref="C84" r:id="rId55" display="https://leetcode.com/problems/valid-parentheses/" xr:uid="{7ADD12A1-9EC7-4636-9F8F-90948148317C}"/>
+    <hyperlink ref="C85" r:id="rId56" display="https://leetcode.com/problems/valid-palindrome/" xr:uid="{2BAE87D2-0406-40CF-9546-2FE8116A408E}"/>
+    <hyperlink ref="C86" r:id="rId57" display="https://leetcode.com/problems/longest-palindromic-substring/" xr:uid="{3C9B94EE-97B1-459A-BE04-57B4F9381063}"/>
+    <hyperlink ref="C87" r:id="rId58" display="https://leetcode.com/problems/palindromic-substrings/" xr:uid="{DFD13D32-6B37-45E4-8963-2F2B45EF0303}"/>
+    <hyperlink ref="C88" r:id="rId59" display="https://leetcode.com/problems/encode-and-decode-strings/" xr:uid="{6DC2FD38-E55D-4165-A315-91EE1BAF5DDE}"/>
+    <hyperlink ref="C93" r:id="rId60" display="https://leetcode.com/problems/maximum-depth-of-binary-tree/" xr:uid="{78AA3887-B2B4-48DF-AA28-5F1DC8D1BA96}"/>
+    <hyperlink ref="C94" r:id="rId61" display="https://leetcode.com/problems/same-tree/" xr:uid="{A16BB67B-FAD1-48A3-9CF9-0F59A8E5D1D7}"/>
+    <hyperlink ref="C95" r:id="rId62" display="https://leetcode.com/problems/invert-binary-tree/" xr:uid="{A9B962FF-63D8-429A-8359-32E3703A386F}"/>
+    <hyperlink ref="C96" r:id="rId63" display="https://leetcode.com/problems/binary-tree-maximum-path-sum/" xr:uid="{B0405526-CF57-4FE4-A45D-0D8835303D32}"/>
+    <hyperlink ref="C97" r:id="rId64" display="https://leetcode.com/problems/binary-tree-level-order-traversal/" xr:uid="{DC4BFCFA-28D6-4EF1-BEF4-F2AA77A3F817}"/>
+    <hyperlink ref="C98" r:id="rId65" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree/" xr:uid="{3036FF3F-61FB-44D1-AB1D-A186159FE296}"/>
+    <hyperlink ref="C99" r:id="rId66" display="https://leetcode.com/problems/subtree-of-another-tree/" xr:uid="{42CCB046-B960-40CB-8638-176CAF86BA0C}"/>
+    <hyperlink ref="C100" r:id="rId67" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{75821F03-953E-4DCA-BAE1-118052FB34CD}"/>
+    <hyperlink ref="C101" r:id="rId68" display="https://leetcode.com/problems/validate-binary-search-tree/" xr:uid="{EF7DBB45-5E01-4A92-906C-77EF4A3A43AF}"/>
+    <hyperlink ref="C102" r:id="rId69" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst/" xr:uid="{95487A18-1E9A-4CB0-A500-445E4ED9B13C}"/>
+    <hyperlink ref="C103" r:id="rId70" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/" xr:uid="{9D9CC895-1B66-4285-8160-E55243A122C4}"/>
+    <hyperlink ref="C104" r:id="rId71" display="https://leetcode.com/problems/implement-trie-prefix-tree/" xr:uid="{73482DD6-0A9E-48CA-92CC-B03851A58E71}"/>
+    <hyperlink ref="C105" r:id="rId72" display="https://leetcode.com/problems/add-and-search-word-data-structure-design/" xr:uid="{41F16458-9A08-40A4-A4B3-8F62C5662A2C}"/>
+    <hyperlink ref="C106" r:id="rId73" display="https://leetcode.com/problems/word-search-ii/" xr:uid="{165E93FD-C479-4F2E-B56C-C9D5DF18248D}"/>
+    <hyperlink ref="C111" r:id="rId74" display="https://leetcode.com/problems/merge-k-sorted-lists/" xr:uid="{91D6F8AE-F94C-4CA4-A8F9-8783077FC5F5}"/>
+    <hyperlink ref="C112" r:id="rId75" display="https://leetcode.com/problems/top-k-frequent-elements/" xr:uid="{6BC19388-F0AA-47F2-AC6F-0E65250D19ED}"/>
+    <hyperlink ref="C113" r:id="rId76" display="https://leetcode.com/problems/find-median-from-data-stream/" xr:uid="{D2ED0338-1985-4AC6-906F-D770ED15DDD3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\the-ab-repositories\DSA-Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812CE198-D0E9-4567-A23F-A4A00E181F58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA53BCA2-9336-4FFC-BFCA-5A73433EDE8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="93">
   <si>
     <t>Array</t>
   </si>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="K112" sqref="K112"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -792,6 +792,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\the-ab-repositories\DSA-Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA53BCA2-9336-4FFC-BFCA-5A73433EDE8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7FDCD2-EC00-4AE9-94A8-F2DD8ACDC258}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
   <si>
     <t>Array</t>
   </si>
@@ -657,13 +657,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="61.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -686,7 +686,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>87</v>
       </c>
@@ -697,7 +697,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>87</v>
       </c>
@@ -708,7 +708,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>87</v>
       </c>
@@ -719,7 +719,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>87</v>
       </c>
@@ -730,7 +730,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>87</v>
       </c>
@@ -741,7 +741,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>87</v>
       </c>
@@ -752,7 +752,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>87</v>
       </c>
@@ -763,7 +763,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>87</v>
       </c>
@@ -774,7 +774,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>87</v>
       </c>
@@ -791,7 +791,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>87</v>
       </c>
@@ -802,7 +802,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -810,7 +810,10 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
@@ -818,7 +821,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
@@ -826,7 +829,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
@@ -834,7 +837,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
@@ -842,7 +845,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
@@ -850,7 +853,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="24" spans="3:6" ht="82" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:6" ht="102" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>17</v>
       </c>
@@ -858,7 +861,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
@@ -866,7 +869,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
@@ -874,7 +877,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:6" ht="72" x14ac:dyDescent="0.3">
       <c r="C27" s="2" t="s">
         <v>20</v>
       </c>
@@ -882,7 +885,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:6" ht="72" x14ac:dyDescent="0.3">
       <c r="C28" s="2" t="s">
         <v>21</v>
       </c>
@@ -890,7 +893,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C29" s="2" t="s">
         <v>22</v>
       </c>
@@ -898,7 +901,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
         <v>23</v>
       </c>
@@ -906,7 +909,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
         <v>24</v>
       </c>
@@ -914,7 +917,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C32" s="2" t="s">
         <v>25</v>
       </c>
@@ -922,7 +925,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C33" s="2" t="s">
         <v>26</v>
       </c>
@@ -930,7 +933,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C34" s="2" t="s">
         <v>27</v>
       </c>
@@ -938,7 +941,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C35" s="2" t="s">
         <v>28</v>
       </c>
@@ -946,7 +949,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="39" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>29</v>
       </c>
@@ -954,7 +957,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C40" s="2" t="s">
         <v>30</v>
       </c>
@@ -962,7 +965,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C41" s="2" t="s">
         <v>31</v>
       </c>
@@ -970,7 +973,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C42" s="2" t="s">
         <v>32</v>
       </c>
@@ -978,7 +981,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C43" s="2" t="s">
         <v>33</v>
       </c>
@@ -986,7 +989,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:6" ht="72" x14ac:dyDescent="0.3">
       <c r="C44" s="2" t="s">
         <v>34</v>
       </c>
@@ -994,7 +997,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="3:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="C45" s="2" t="s">
         <v>35</v>
       </c>
@@ -1002,7 +1005,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="3:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="C46" s="2" t="s">
         <v>36</v>
       </c>
@@ -1010,7 +1013,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="3:6" ht="203" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:6" ht="201.6" x14ac:dyDescent="0.3">
       <c r="C47" s="2" t="s">
         <v>37</v>
       </c>
@@ -1018,7 +1021,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="51" spans="3:6" ht="41" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>38</v>
       </c>
@@ -1026,7 +1029,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C52" s="2" t="s">
         <v>39</v>
       </c>
@@ -1034,7 +1037,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C53" s="2" t="s">
         <v>40</v>
       </c>
@@ -1042,7 +1045,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:6" ht="72" x14ac:dyDescent="0.3">
       <c r="C54" s="2" t="s">
         <v>41</v>
       </c>
@@ -1050,7 +1053,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="3:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="C55" s="2" t="s">
         <v>42</v>
       </c>
@@ -1058,7 +1061,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="3:6" ht="116" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="C56" s="2" t="s">
         <v>43</v>
       </c>
@@ -1066,7 +1069,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="60" spans="3:6" ht="41" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>44</v>
       </c>
@@ -1074,7 +1077,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C61" s="2" t="s">
         <v>45</v>
       </c>
@@ -1082,7 +1085,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:6" ht="72" x14ac:dyDescent="0.3">
       <c r="C62" s="2" t="s">
         <v>46</v>
       </c>
@@ -1090,7 +1093,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C63" s="2" t="s">
         <v>47</v>
       </c>
@@ -1098,7 +1101,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C64" s="2" t="s">
         <v>48</v>
       </c>
@@ -1106,7 +1109,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C65" s="2" t="s">
         <v>49</v>
       </c>
@@ -1114,7 +1117,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C66" s="2" t="s">
         <v>50</v>
       </c>
@@ -1122,7 +1125,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="70" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>51</v>
       </c>
@@ -1130,7 +1133,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C71" s="2" t="s">
         <v>52</v>
       </c>
@@ -1138,7 +1141,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C72" s="2" t="s">
         <v>53</v>
       </c>
@@ -1146,7 +1149,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C73" s="2" t="s">
         <v>54</v>
       </c>
@@ -1154,7 +1157,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C74" s="2" t="s">
         <v>55</v>
       </c>
@@ -1162,7 +1165,7 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="78" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C78" s="1" t="s">
         <v>56</v>
       </c>
@@ -1170,7 +1173,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="3:6" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="C79" s="2" t="s">
         <v>57</v>
       </c>
@@ -1178,7 +1181,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="3:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="C80" s="2" t="s">
         <v>58</v>
       </c>
@@ -1186,7 +1189,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C81" s="2" t="s">
         <v>59</v>
       </c>
@@ -1194,7 +1197,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C82" s="2" t="s">
         <v>60</v>
       </c>
@@ -1202,7 +1205,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C83" s="2" t="s">
         <v>61</v>
       </c>
@@ -1210,7 +1213,7 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C84" s="2" t="s">
         <v>62</v>
       </c>
@@ -1218,7 +1221,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C85" s="2" t="s">
         <v>63</v>
       </c>
@@ -1226,7 +1229,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:6" ht="72" x14ac:dyDescent="0.3">
       <c r="C86" s="2" t="s">
         <v>64</v>
       </c>
@@ -1234,7 +1237,7 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C87" s="2" t="s">
         <v>65</v>
       </c>
@@ -1242,7 +1245,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="3:6" ht="116" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="C88" s="2" t="s">
         <v>66</v>
       </c>
@@ -1250,7 +1253,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="92" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>67</v>
       </c>
@@ -1258,7 +1261,7 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C93" s="2" t="s">
         <v>68</v>
       </c>
@@ -1266,7 +1269,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C94" s="2" t="s">
         <v>69</v>
       </c>
@@ -1274,7 +1277,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C95" s="2" t="s">
         <v>70</v>
       </c>
@@ -1282,7 +1285,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:6" ht="72" x14ac:dyDescent="0.3">
       <c r="C96" s="2" t="s">
         <v>71</v>
       </c>
@@ -1290,7 +1293,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C97" s="2" t="s">
         <v>72</v>
       </c>
@@ -1298,7 +1301,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C98" s="2" t="s">
         <v>73</v>
       </c>
@@ -1306,7 +1309,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C99" s="2" t="s">
         <v>74</v>
       </c>
@@ -1314,7 +1317,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="3:6" ht="145" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:6" ht="144" x14ac:dyDescent="0.3">
       <c r="C100" s="2" t="s">
         <v>75</v>
       </c>
@@ -1322,7 +1325,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C101" s="2" t="s">
         <v>76</v>
       </c>
@@ -1330,7 +1333,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C102" s="2" t="s">
         <v>77</v>
       </c>
@@ -1338,7 +1341,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:6" ht="72" x14ac:dyDescent="0.3">
       <c r="C103" s="2" t="s">
         <v>78</v>
       </c>
@@ -1346,7 +1349,7 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C104" s="2" t="s">
         <v>79</v>
       </c>
@@ -1354,7 +1357,7 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C105" s="2" t="s">
         <v>80</v>
       </c>
@@ -1362,7 +1365,7 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C106" s="2" t="s">
         <v>81</v>
       </c>
@@ -1370,7 +1373,7 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="110" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C110" s="1" t="s">
         <v>82</v>
       </c>
@@ -1378,7 +1381,7 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C111" s="2" t="s">
         <v>48</v>
       </c>
@@ -1386,7 +1389,7 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:6" ht="72" x14ac:dyDescent="0.3">
       <c r="C112" s="2" t="s">
         <v>83</v>
       </c>
@@ -1394,7 +1397,7 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:6" ht="72" x14ac:dyDescent="0.3">
       <c r="C113" s="2" t="s">
         <v>84</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\the-ab-repositories\DSA-Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7FDCD2-EC00-4AE9-94A8-F2DD8ACDC258}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9477CF78-AE29-4F2E-81B3-76B080919742}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
   <si>
     <t>Array</t>
   </si>
@@ -657,13 +657,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="61.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -686,7 +686,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>87</v>
       </c>
@@ -697,7 +697,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>87</v>
       </c>
@@ -708,7 +708,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>87</v>
       </c>
@@ -719,7 +719,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>87</v>
       </c>
@@ -730,7 +730,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>87</v>
       </c>
@@ -741,7 +741,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>87</v>
       </c>
@@ -752,7 +752,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>87</v>
       </c>
@@ -763,7 +763,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>87</v>
       </c>
@@ -774,7 +774,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>87</v>
       </c>
@@ -791,7 +791,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>87</v>
       </c>
@@ -802,7 +802,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="20.5" x14ac:dyDescent="0.35">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -810,7 +810,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>87</v>
       </c>
@@ -821,7 +821,10 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
@@ -829,7 +832,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
@@ -837,7 +840,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
@@ -845,7 +848,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
@@ -853,7 +856,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="24" spans="3:6" ht="102" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="82" x14ac:dyDescent="0.35">
       <c r="C24" s="1" t="s">
         <v>17</v>
       </c>
@@ -861,7 +864,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
@@ -869,7 +872,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
@@ -877,7 +880,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C27" s="2" t="s">
         <v>20</v>
       </c>
@@ -885,7 +888,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C28" s="2" t="s">
         <v>21</v>
       </c>
@@ -893,7 +896,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="C29" s="2" t="s">
         <v>22</v>
       </c>
@@ -901,7 +904,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C30" s="2" t="s">
         <v>23</v>
       </c>
@@ -909,7 +912,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C31" s="2" t="s">
         <v>24</v>
       </c>
@@ -917,7 +920,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C32" s="2" t="s">
         <v>25</v>
       </c>
@@ -925,7 +928,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C33" s="2" t="s">
         <v>26</v>
       </c>
@@ -933,7 +936,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C34" s="2" t="s">
         <v>27</v>
       </c>
@@ -941,7 +944,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C35" s="2" t="s">
         <v>28</v>
       </c>
@@ -949,7 +952,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="39" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
       <c r="C39" s="1" t="s">
         <v>29</v>
       </c>
@@ -957,7 +960,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C40" s="2" t="s">
         <v>30</v>
       </c>
@@ -965,7 +968,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C41" s="2" t="s">
         <v>31</v>
       </c>
@@ -973,7 +976,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:6" ht="58" x14ac:dyDescent="0.35">
       <c r="C42" s="2" t="s">
         <v>32</v>
       </c>
@@ -981,7 +984,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C43" s="2" t="s">
         <v>33</v>
       </c>
@@ -989,7 +992,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C44" s="2" t="s">
         <v>34</v>
       </c>
@@ -997,7 +1000,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="3:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="C45" s="2" t="s">
         <v>35</v>
       </c>
@@ -1005,7 +1008,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="3:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="C46" s="2" t="s">
         <v>36</v>
       </c>
@@ -1013,7 +1016,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="3:6" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:6" ht="203" x14ac:dyDescent="0.35">
       <c r="C47" s="2" t="s">
         <v>37</v>
       </c>
@@ -1021,7 +1024,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="51" spans="3:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:6" ht="41" x14ac:dyDescent="0.35">
       <c r="C51" s="1" t="s">
         <v>38</v>
       </c>
@@ -1029,7 +1032,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C52" s="2" t="s">
         <v>39</v>
       </c>
@@ -1037,7 +1040,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C53" s="2" t="s">
         <v>40</v>
       </c>
@@ -1045,7 +1048,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C54" s="2" t="s">
         <v>41</v>
       </c>
@@ -1053,7 +1056,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="3:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="C55" s="2" t="s">
         <v>42</v>
       </c>
@@ -1061,7 +1064,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="3:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:6" ht="116" x14ac:dyDescent="0.35">
       <c r="C56" s="2" t="s">
         <v>43</v>
       </c>
@@ -1069,7 +1072,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="60" spans="3:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:6" ht="41" x14ac:dyDescent="0.35">
       <c r="C60" s="1" t="s">
         <v>44</v>
       </c>
@@ -1077,7 +1080,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:6" ht="58" x14ac:dyDescent="0.35">
       <c r="C61" s="2" t="s">
         <v>45</v>
       </c>
@@ -1085,7 +1088,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C62" s="2" t="s">
         <v>46</v>
       </c>
@@ -1093,7 +1096,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:6" ht="58" x14ac:dyDescent="0.35">
       <c r="C63" s="2" t="s">
         <v>47</v>
       </c>
@@ -1101,7 +1104,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:6" ht="58" x14ac:dyDescent="0.35">
       <c r="C64" s="2" t="s">
         <v>48</v>
       </c>
@@ -1109,7 +1112,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:6" ht="87" x14ac:dyDescent="0.35">
       <c r="C65" s="2" t="s">
         <v>49</v>
       </c>
@@ -1117,7 +1120,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C66" s="2" t="s">
         <v>50</v>
       </c>
@@ -1125,7 +1128,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="70" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
       <c r="C70" s="1" t="s">
         <v>51</v>
       </c>
@@ -1133,7 +1136,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C71" s="2" t="s">
         <v>52</v>
       </c>
@@ -1141,7 +1144,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C72" s="2" t="s">
         <v>53</v>
       </c>
@@ -1149,7 +1152,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C73" s="2" t="s">
         <v>54</v>
       </c>
@@ -1157,7 +1160,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C74" s="2" t="s">
         <v>55</v>
       </c>
@@ -1165,7 +1168,7 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="78" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
       <c r="C78" s="1" t="s">
         <v>56</v>
       </c>
@@ -1173,7 +1176,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="3:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="C79" s="2" t="s">
         <v>57</v>
       </c>
@@ -1181,7 +1184,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="3:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="C80" s="2" t="s">
         <v>58</v>
       </c>
@@ -1189,7 +1192,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" ht="87" x14ac:dyDescent="0.35">
       <c r="C81" s="2" t="s">
         <v>59</v>
       </c>
@@ -1197,7 +1200,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C82" s="2" t="s">
         <v>60</v>
       </c>
@@ -1205,7 +1208,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C83" s="2" t="s">
         <v>61</v>
       </c>
@@ -1213,7 +1216,7 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C84" s="2" t="s">
         <v>62</v>
       </c>
@@ -1221,7 +1224,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C85" s="2" t="s">
         <v>63</v>
       </c>
@@ -1229,7 +1232,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C86" s="2" t="s">
         <v>64</v>
       </c>
@@ -1237,7 +1240,7 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:6" ht="58" x14ac:dyDescent="0.35">
       <c r="C87" s="2" t="s">
         <v>65</v>
       </c>
@@ -1245,7 +1248,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="3:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:6" ht="116" x14ac:dyDescent="0.35">
       <c r="C88" s="2" t="s">
         <v>66</v>
       </c>
@@ -1253,7 +1256,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="92" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
       <c r="C92" s="1" t="s">
         <v>67</v>
       </c>
@@ -1261,7 +1264,7 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:6" ht="87" x14ac:dyDescent="0.35">
       <c r="C93" s="2" t="s">
         <v>68</v>
       </c>
@@ -1269,7 +1272,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C94" s="2" t="s">
         <v>69</v>
       </c>
@@ -1277,7 +1280,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:6" ht="58" x14ac:dyDescent="0.35">
       <c r="C95" s="2" t="s">
         <v>70</v>
       </c>
@@ -1285,7 +1288,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:6" ht="87" x14ac:dyDescent="0.35">
       <c r="C96" s="2" t="s">
         <v>71</v>
       </c>
@@ -1293,7 +1296,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:6" ht="87" x14ac:dyDescent="0.35">
       <c r="C97" s="2" t="s">
         <v>72</v>
       </c>
@@ -1301,7 +1304,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:6" ht="87" x14ac:dyDescent="0.35">
       <c r="C98" s="2" t="s">
         <v>73</v>
       </c>
@@ -1309,7 +1312,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:6" ht="58" x14ac:dyDescent="0.35">
       <c r="C99" s="2" t="s">
         <v>74</v>
       </c>
@@ -1317,7 +1320,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="3:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:6" ht="145" x14ac:dyDescent="0.35">
       <c r="C100" s="2" t="s">
         <v>75</v>
       </c>
@@ -1325,7 +1328,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C101" s="2" t="s">
         <v>76</v>
       </c>
@@ -1333,7 +1336,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:6" ht="87" x14ac:dyDescent="0.35">
       <c r="C102" s="2" t="s">
         <v>77</v>
       </c>
@@ -1341,7 +1344,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:6" ht="87" x14ac:dyDescent="0.35">
       <c r="C103" s="2" t="s">
         <v>78</v>
       </c>
@@ -1349,7 +1352,7 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:6" ht="58" x14ac:dyDescent="0.35">
       <c r="C104" s="2" t="s">
         <v>79</v>
       </c>
@@ -1357,7 +1360,7 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:6" ht="58" x14ac:dyDescent="0.35">
       <c r="C105" s="2" t="s">
         <v>80</v>
       </c>
@@ -1365,7 +1368,7 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C106" s="2" t="s">
         <v>81</v>
       </c>
@@ -1373,7 +1376,7 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="110" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
       <c r="C110" s="1" t="s">
         <v>82</v>
       </c>
@@ -1381,7 +1384,7 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:6" ht="58" x14ac:dyDescent="0.35">
       <c r="C111" s="2" t="s">
         <v>48</v>
       </c>
@@ -1389,7 +1392,7 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C112" s="2" t="s">
         <v>83</v>
       </c>
@@ -1397,7 +1400,7 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C113" s="2" t="s">
         <v>84</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\the-ab-repositories\DSA-Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9477CF78-AE29-4F2E-81B3-76B080919742}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37DD633-7891-4F70-A96A-31C0B60BA8DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
   <si>
     <t>Array</t>
   </si>
@@ -658,7 +658,7 @@
   <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -833,6 +833,9 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\the-ab-repositories\DSA-Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37DD633-7891-4F70-A96A-31C0B60BA8DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0BE7A8-2BB0-44AD-9582-91A64884BE5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="93">
   <si>
     <t>Array</t>
   </si>
@@ -658,7 +658,7 @@
   <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -852,6 +852,9 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>16</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\the-ab-repositories\DSA-Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0BE7A8-2BB0-44AD-9582-91A64884BE5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5D7630-EDD6-4C7C-8764-8FD1B296A23C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
   <si>
     <t>Array</t>
   </si>
@@ -657,13 +657,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="61.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -686,7 +686,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>87</v>
       </c>
@@ -697,7 +697,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>87</v>
       </c>
@@ -708,7 +708,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>87</v>
       </c>
@@ -719,7 +719,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>87</v>
       </c>
@@ -730,7 +730,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>87</v>
       </c>
@@ -741,7 +741,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>87</v>
       </c>
@@ -752,7 +752,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>87</v>
       </c>
@@ -763,7 +763,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>87</v>
       </c>
@@ -774,7 +774,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>87</v>
       </c>
@@ -791,7 +791,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>87</v>
       </c>
@@ -802,7 +802,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -810,7 +810,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>87</v>
       </c>
@@ -821,7 +821,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>87</v>
       </c>
@@ -832,7 +832,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>87</v>
       </c>
@@ -843,7 +843,10 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
@@ -851,7 +854,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>87</v>
       </c>
@@ -862,7 +865,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="24" spans="2:6" ht="82" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" ht="102" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>17</v>
       </c>
@@ -870,7 +873,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
@@ -878,7 +881,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
@@ -886,7 +889,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" ht="72" x14ac:dyDescent="0.3">
       <c r="C27" s="2" t="s">
         <v>20</v>
       </c>
@@ -894,7 +897,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" ht="72" x14ac:dyDescent="0.3">
       <c r="C28" s="2" t="s">
         <v>21</v>
       </c>
@@ -902,7 +905,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C29" s="2" t="s">
         <v>22</v>
       </c>
@@ -910,7 +913,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
         <v>23</v>
       </c>
@@ -918,7 +921,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
         <v>24</v>
       </c>
@@ -926,7 +929,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C32" s="2" t="s">
         <v>25</v>
       </c>
@@ -934,7 +937,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C33" s="2" t="s">
         <v>26</v>
       </c>
@@ -942,7 +945,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C34" s="2" t="s">
         <v>27</v>
       </c>
@@ -950,7 +953,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C35" s="2" t="s">
         <v>28</v>
       </c>
@@ -958,7 +961,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="39" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>29</v>
       </c>
@@ -966,7 +969,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C40" s="2" t="s">
         <v>30</v>
       </c>
@@ -974,7 +977,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C41" s="2" t="s">
         <v>31</v>
       </c>
@@ -982,7 +985,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C42" s="2" t="s">
         <v>32</v>
       </c>
@@ -990,7 +993,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C43" s="2" t="s">
         <v>33</v>
       </c>
@@ -998,7 +1001,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:6" ht="72" x14ac:dyDescent="0.3">
       <c r="C44" s="2" t="s">
         <v>34</v>
       </c>
@@ -1006,7 +1009,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="3:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="C45" s="2" t="s">
         <v>35</v>
       </c>
@@ -1014,7 +1017,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="3:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="C46" s="2" t="s">
         <v>36</v>
       </c>
@@ -1022,7 +1025,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="3:6" ht="203" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:6" ht="201.6" x14ac:dyDescent="0.3">
       <c r="C47" s="2" t="s">
         <v>37</v>
       </c>
@@ -1030,7 +1033,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="51" spans="3:6" ht="41" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>38</v>
       </c>
@@ -1038,7 +1041,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C52" s="2" t="s">
         <v>39</v>
       </c>
@@ -1046,7 +1049,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C53" s="2" t="s">
         <v>40</v>
       </c>
@@ -1054,7 +1057,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:6" ht="72" x14ac:dyDescent="0.3">
       <c r="C54" s="2" t="s">
         <v>41</v>
       </c>
@@ -1062,7 +1065,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="3:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="C55" s="2" t="s">
         <v>42</v>
       </c>
@@ -1070,7 +1073,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="3:6" ht="116" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="C56" s="2" t="s">
         <v>43</v>
       </c>
@@ -1078,7 +1081,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="60" spans="3:6" ht="41" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>44</v>
       </c>
@@ -1086,7 +1089,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C61" s="2" t="s">
         <v>45</v>
       </c>
@@ -1094,7 +1097,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:6" ht="72" x14ac:dyDescent="0.3">
       <c r="C62" s="2" t="s">
         <v>46</v>
       </c>
@@ -1102,7 +1105,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C63" s="2" t="s">
         <v>47</v>
       </c>
@@ -1110,7 +1113,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C64" s="2" t="s">
         <v>48</v>
       </c>
@@ -1118,7 +1121,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C65" s="2" t="s">
         <v>49</v>
       </c>
@@ -1126,7 +1129,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C66" s="2" t="s">
         <v>50</v>
       </c>
@@ -1134,7 +1137,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="70" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>51</v>
       </c>
@@ -1142,7 +1145,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C71" s="2" t="s">
         <v>52</v>
       </c>
@@ -1150,7 +1153,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C72" s="2" t="s">
         <v>53</v>
       </c>
@@ -1158,7 +1161,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C73" s="2" t="s">
         <v>54</v>
       </c>
@@ -1166,7 +1169,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C74" s="2" t="s">
         <v>55</v>
       </c>
@@ -1174,7 +1177,7 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="78" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C78" s="1" t="s">
         <v>56</v>
       </c>
@@ -1182,7 +1185,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="3:6" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="C79" s="2" t="s">
         <v>57</v>
       </c>
@@ -1190,7 +1193,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="3:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="C80" s="2" t="s">
         <v>58</v>
       </c>
@@ -1198,7 +1201,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C81" s="2" t="s">
         <v>59</v>
       </c>
@@ -1206,7 +1209,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C82" s="2" t="s">
         <v>60</v>
       </c>
@@ -1214,7 +1217,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C83" s="2" t="s">
         <v>61</v>
       </c>
@@ -1222,7 +1225,7 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C84" s="2" t="s">
         <v>62</v>
       </c>
@@ -1230,7 +1233,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C85" s="2" t="s">
         <v>63</v>
       </c>
@@ -1238,7 +1241,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:6" ht="72" x14ac:dyDescent="0.3">
       <c r="C86" s="2" t="s">
         <v>64</v>
       </c>
@@ -1246,7 +1249,7 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C87" s="2" t="s">
         <v>65</v>
       </c>
@@ -1254,7 +1257,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="3:6" ht="116" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="C88" s="2" t="s">
         <v>66</v>
       </c>
@@ -1262,7 +1265,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="92" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>67</v>
       </c>
@@ -1270,7 +1273,7 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C93" s="2" t="s">
         <v>68</v>
       </c>
@@ -1278,7 +1281,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C94" s="2" t="s">
         <v>69</v>
       </c>
@@ -1286,7 +1289,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C95" s="2" t="s">
         <v>70</v>
       </c>
@@ -1294,7 +1297,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:6" ht="72" x14ac:dyDescent="0.3">
       <c r="C96" s="2" t="s">
         <v>71</v>
       </c>
@@ -1302,7 +1305,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C97" s="2" t="s">
         <v>72</v>
       </c>
@@ -1310,7 +1313,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C98" s="2" t="s">
         <v>73</v>
       </c>
@@ -1318,7 +1321,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C99" s="2" t="s">
         <v>74</v>
       </c>
@@ -1326,7 +1329,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="3:6" ht="145" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:6" ht="144" x14ac:dyDescent="0.3">
       <c r="C100" s="2" t="s">
         <v>75</v>
       </c>
@@ -1334,7 +1337,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C101" s="2" t="s">
         <v>76</v>
       </c>
@@ -1342,7 +1345,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C102" s="2" t="s">
         <v>77</v>
       </c>
@@ -1350,7 +1353,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:6" ht="72" x14ac:dyDescent="0.3">
       <c r="C103" s="2" t="s">
         <v>78</v>
       </c>
@@ -1358,7 +1361,7 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C104" s="2" t="s">
         <v>79</v>
       </c>
@@ -1366,7 +1369,7 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C105" s="2" t="s">
         <v>80</v>
       </c>
@@ -1374,7 +1377,7 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C106" s="2" t="s">
         <v>81</v>
       </c>
@@ -1382,7 +1385,7 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="110" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C110" s="1" t="s">
         <v>82</v>
       </c>
@@ -1390,7 +1393,7 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C111" s="2" t="s">
         <v>48</v>
       </c>
@@ -1398,7 +1401,7 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:6" ht="72" x14ac:dyDescent="0.3">
       <c r="C112" s="2" t="s">
         <v>83</v>
       </c>
@@ -1406,7 +1409,7 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:6" ht="72" x14ac:dyDescent="0.3">
       <c r="C113" s="2" t="s">
         <v>84</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\the-ab-repositories\DSA-Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5D7630-EDD6-4C7C-8764-8FD1B296A23C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80423888-470A-4BC6-8B59-28C5E96A3EF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="93">
   <si>
     <t>Array</t>
   </si>
@@ -657,13 +657,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="61.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -686,7 +686,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>87</v>
       </c>
@@ -697,7 +697,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>87</v>
       </c>
@@ -708,7 +708,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>87</v>
       </c>
@@ -719,7 +719,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>87</v>
       </c>
@@ -730,7 +730,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>87</v>
       </c>
@@ -741,7 +741,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>87</v>
       </c>
@@ -752,7 +752,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>87</v>
       </c>
@@ -763,7 +763,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>87</v>
       </c>
@@ -774,7 +774,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>87</v>
       </c>
@@ -791,7 +791,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>87</v>
       </c>
@@ -802,7 +802,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="20.5" x14ac:dyDescent="0.35">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -810,7 +810,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>87</v>
       </c>
@@ -821,7 +821,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>87</v>
       </c>
@@ -832,7 +832,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>87</v>
       </c>
@@ -843,7 +843,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>87</v>
       </c>
@@ -854,7 +854,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>87</v>
       </c>
@@ -865,7 +865,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="24" spans="2:6" ht="102" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="82" x14ac:dyDescent="0.35">
       <c r="C24" s="1" t="s">
         <v>17</v>
       </c>
@@ -873,7 +873,10 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
@@ -881,7 +884,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
@@ -889,7 +892,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C27" s="2" t="s">
         <v>20</v>
       </c>
@@ -897,7 +900,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C28" s="2" t="s">
         <v>21</v>
       </c>
@@ -905,7 +908,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="C29" s="2" t="s">
         <v>22</v>
       </c>
@@ -913,7 +916,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C30" s="2" t="s">
         <v>23</v>
       </c>
@@ -921,7 +924,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C31" s="2" t="s">
         <v>24</v>
       </c>
@@ -929,7 +932,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C32" s="2" t="s">
         <v>25</v>
       </c>
@@ -937,7 +940,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C33" s="2" t="s">
         <v>26</v>
       </c>
@@ -945,7 +948,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C34" s="2" t="s">
         <v>27</v>
       </c>
@@ -953,7 +956,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C35" s="2" t="s">
         <v>28</v>
       </c>
@@ -961,7 +964,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="39" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
       <c r="C39" s="1" t="s">
         <v>29</v>
       </c>
@@ -969,7 +972,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C40" s="2" t="s">
         <v>30</v>
       </c>
@@ -977,7 +980,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C41" s="2" t="s">
         <v>31</v>
       </c>
@@ -985,7 +988,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:6" ht="58" x14ac:dyDescent="0.35">
       <c r="C42" s="2" t="s">
         <v>32</v>
       </c>
@@ -993,7 +996,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C43" s="2" t="s">
         <v>33</v>
       </c>
@@ -1001,7 +1004,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C44" s="2" t="s">
         <v>34</v>
       </c>
@@ -1009,7 +1012,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="3:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="C45" s="2" t="s">
         <v>35</v>
       </c>
@@ -1017,7 +1020,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="3:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="C46" s="2" t="s">
         <v>36</v>
       </c>
@@ -1025,7 +1028,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="3:6" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:6" ht="203" x14ac:dyDescent="0.35">
       <c r="C47" s="2" t="s">
         <v>37</v>
       </c>
@@ -1033,7 +1036,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="51" spans="3:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:6" ht="41" x14ac:dyDescent="0.35">
       <c r="C51" s="1" t="s">
         <v>38</v>
       </c>
@@ -1041,7 +1044,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C52" s="2" t="s">
         <v>39</v>
       </c>
@@ -1049,7 +1052,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C53" s="2" t="s">
         <v>40</v>
       </c>
@@ -1057,7 +1060,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C54" s="2" t="s">
         <v>41</v>
       </c>
@@ -1065,7 +1068,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="3:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="C55" s="2" t="s">
         <v>42</v>
       </c>
@@ -1073,7 +1076,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="3:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:6" ht="116" x14ac:dyDescent="0.35">
       <c r="C56" s="2" t="s">
         <v>43</v>
       </c>
@@ -1081,7 +1084,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="60" spans="3:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:6" ht="41" x14ac:dyDescent="0.35">
       <c r="C60" s="1" t="s">
         <v>44</v>
       </c>
@@ -1089,7 +1092,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:6" ht="58" x14ac:dyDescent="0.35">
       <c r="C61" s="2" t="s">
         <v>45</v>
       </c>
@@ -1097,7 +1100,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C62" s="2" t="s">
         <v>46</v>
       </c>
@@ -1105,7 +1108,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:6" ht="58" x14ac:dyDescent="0.35">
       <c r="C63" s="2" t="s">
         <v>47</v>
       </c>
@@ -1113,7 +1116,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:6" ht="58" x14ac:dyDescent="0.35">
       <c r="C64" s="2" t="s">
         <v>48</v>
       </c>
@@ -1121,7 +1124,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:6" ht="87" x14ac:dyDescent="0.35">
       <c r="C65" s="2" t="s">
         <v>49</v>
       </c>
@@ -1129,7 +1132,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C66" s="2" t="s">
         <v>50</v>
       </c>
@@ -1137,7 +1140,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="70" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
       <c r="C70" s="1" t="s">
         <v>51</v>
       </c>
@@ -1145,7 +1148,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C71" s="2" t="s">
         <v>52</v>
       </c>
@@ -1153,7 +1156,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C72" s="2" t="s">
         <v>53</v>
       </c>
@@ -1161,7 +1164,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C73" s="2" t="s">
         <v>54</v>
       </c>
@@ -1169,7 +1172,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C74" s="2" t="s">
         <v>55</v>
       </c>
@@ -1177,7 +1180,7 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="78" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
       <c r="C78" s="1" t="s">
         <v>56</v>
       </c>
@@ -1185,7 +1188,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="3:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="C79" s="2" t="s">
         <v>57</v>
       </c>
@@ -1193,7 +1196,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="3:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="C80" s="2" t="s">
         <v>58</v>
       </c>
@@ -1201,7 +1204,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" ht="87" x14ac:dyDescent="0.35">
       <c r="C81" s="2" t="s">
         <v>59</v>
       </c>
@@ -1209,7 +1212,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C82" s="2" t="s">
         <v>60</v>
       </c>
@@ -1217,7 +1220,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C83" s="2" t="s">
         <v>61</v>
       </c>
@@ -1225,7 +1228,7 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C84" s="2" t="s">
         <v>62</v>
       </c>
@@ -1233,7 +1236,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C85" s="2" t="s">
         <v>63</v>
       </c>
@@ -1241,7 +1244,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C86" s="2" t="s">
         <v>64</v>
       </c>
@@ -1249,7 +1252,7 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:6" ht="58" x14ac:dyDescent="0.35">
       <c r="C87" s="2" t="s">
         <v>65</v>
       </c>
@@ -1257,7 +1260,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="3:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:6" ht="116" x14ac:dyDescent="0.35">
       <c r="C88" s="2" t="s">
         <v>66</v>
       </c>
@@ -1265,7 +1268,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="92" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
       <c r="C92" s="1" t="s">
         <v>67</v>
       </c>
@@ -1273,7 +1276,7 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:6" ht="87" x14ac:dyDescent="0.35">
       <c r="C93" s="2" t="s">
         <v>68</v>
       </c>
@@ -1281,7 +1284,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:6" ht="29" x14ac:dyDescent="0.35">
       <c r="C94" s="2" t="s">
         <v>69</v>
       </c>
@@ -1289,7 +1292,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:6" ht="58" x14ac:dyDescent="0.35">
       <c r="C95" s="2" t="s">
         <v>70</v>
       </c>
@@ -1297,7 +1300,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:6" ht="87" x14ac:dyDescent="0.35">
       <c r="C96" s="2" t="s">
         <v>71</v>
       </c>
@@ -1305,7 +1308,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:6" ht="87" x14ac:dyDescent="0.35">
       <c r="C97" s="2" t="s">
         <v>72</v>
       </c>
@@ -1313,7 +1316,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:6" ht="87" x14ac:dyDescent="0.35">
       <c r="C98" s="2" t="s">
         <v>73</v>
       </c>
@@ -1321,7 +1324,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:6" ht="58" x14ac:dyDescent="0.35">
       <c r="C99" s="2" t="s">
         <v>74</v>
       </c>
@@ -1329,7 +1332,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="3:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:6" ht="145" x14ac:dyDescent="0.35">
       <c r="C100" s="2" t="s">
         <v>75</v>
       </c>
@@ -1337,7 +1340,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C101" s="2" t="s">
         <v>76</v>
       </c>
@@ -1345,7 +1348,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:6" ht="87" x14ac:dyDescent="0.35">
       <c r="C102" s="2" t="s">
         <v>77</v>
       </c>
@@ -1353,7 +1356,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:6" ht="87" x14ac:dyDescent="0.35">
       <c r="C103" s="2" t="s">
         <v>78</v>
       </c>
@@ -1361,7 +1364,7 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:6" ht="58" x14ac:dyDescent="0.35">
       <c r="C104" s="2" t="s">
         <v>79</v>
       </c>
@@ -1369,7 +1372,7 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:6" ht="58" x14ac:dyDescent="0.35">
       <c r="C105" s="2" t="s">
         <v>80</v>
       </c>
@@ -1377,7 +1380,7 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C106" s="2" t="s">
         <v>81</v>
       </c>
@@ -1385,7 +1388,7 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="110" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
       <c r="C110" s="1" t="s">
         <v>82</v>
       </c>
@@ -1393,7 +1396,7 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:6" ht="58" x14ac:dyDescent="0.35">
       <c r="C111" s="2" t="s">
         <v>48</v>
       </c>
@@ -1401,7 +1404,7 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C112" s="2" t="s">
         <v>83</v>
       </c>
@@ -1409,7 +1412,7 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C113" s="2" t="s">
         <v>84</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\the-ab-repositories\DSA-Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80423888-470A-4BC6-8B59-28C5E96A3EF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF26A29-05C2-4FC5-BC64-3C11DA3DF95A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
   <si>
     <t>Array</t>
   </si>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -885,6 +885,9 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
       <c r="C26" s="2" t="s">
         <v>19</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\the-ab-repositories\DSA-Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF26A29-05C2-4FC5-BC64-3C11DA3DF95A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586746C3-46C9-4F7D-8F43-EE54A9B578EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
   <si>
     <t>Array</t>
   </si>
@@ -658,7 +658,7 @@
   <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -896,6 +896,9 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
       <c r="C27" s="2" t="s">
         <v>20</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\the-ab-repositories\DSA-Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586746C3-46C9-4F7D-8F43-EE54A9B578EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0649336C-5603-47D5-8897-B5F8E6717EC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="93">
   <si>
     <t>Array</t>
   </si>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -931,6 +931,9 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
       <c r="C31" s="2" t="s">
         <v>24</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\the-ab-repositories\DSA-Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0649336C-5603-47D5-8897-B5F8E6717EC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16A60B7-8D5B-4257-97E9-BA25B077958D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
   <si>
     <t>Array</t>
   </si>
@@ -658,7 +658,7 @@
   <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -942,6 +942,9 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
       <c r="C32" s="2" t="s">
         <v>25</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\the-ab-repositories\DSA-Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16A60B7-8D5B-4257-97E9-BA25B077958D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E3F470-8A1A-4AB2-8303-E8E373546ED1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
   <si>
     <t>Array</t>
   </si>
@@ -657,13 +657,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="61.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -686,7 +686,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>87</v>
       </c>
@@ -697,7 +697,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>87</v>
       </c>
@@ -708,7 +708,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>87</v>
       </c>
@@ -719,7 +719,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>87</v>
       </c>
@@ -730,7 +730,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>87</v>
       </c>
@@ -741,7 +741,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>87</v>
       </c>
@@ -752,7 +752,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>87</v>
       </c>
@@ -763,7 +763,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>87</v>
       </c>
@@ -774,7 +774,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>87</v>
       </c>
@@ -791,7 +791,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>87</v>
       </c>
@@ -802,7 +802,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -810,7 +810,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>87</v>
       </c>
@@ -821,7 +821,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>87</v>
       </c>
@@ -832,7 +832,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>87</v>
       </c>
@@ -843,7 +843,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>87</v>
       </c>
@@ -854,7 +854,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>87</v>
       </c>
@@ -865,7 +865,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="24" spans="2:6" ht="82" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" ht="102" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>17</v>
       </c>
@@ -873,7 +873,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>87</v>
       </c>
@@ -884,7 +884,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>87</v>
       </c>
@@ -895,7 +895,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" ht="72" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>87</v>
       </c>
@@ -906,7 +906,10 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
       <c r="C28" s="2" t="s">
         <v>21</v>
       </c>
@@ -914,7 +917,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C29" s="2" t="s">
         <v>22</v>
       </c>
@@ -922,7 +925,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
         <v>23</v>
       </c>
@@ -930,7 +933,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>87</v>
       </c>
@@ -941,7 +944,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>87</v>
       </c>
@@ -952,7 +955,10 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
       <c r="C33" s="2" t="s">
         <v>26</v>
       </c>
@@ -960,7 +966,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C34" s="2" t="s">
         <v>27</v>
       </c>
@@ -968,7 +974,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C35" s="2" t="s">
         <v>28</v>
       </c>
@@ -976,7 +982,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="39" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>29</v>
       </c>
@@ -984,7 +990,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C40" s="2" t="s">
         <v>30</v>
       </c>
@@ -992,7 +998,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C41" s="2" t="s">
         <v>31</v>
       </c>
@@ -1000,7 +1006,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C42" s="2" t="s">
         <v>32</v>
       </c>
@@ -1008,7 +1014,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C43" s="2" t="s">
         <v>33</v>
       </c>
@@ -1016,7 +1022,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" ht="72" x14ac:dyDescent="0.3">
       <c r="C44" s="2" t="s">
         <v>34</v>
       </c>
@@ -1024,7 +1030,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="3:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="C45" s="2" t="s">
         <v>35</v>
       </c>
@@ -1032,7 +1038,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="3:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="C46" s="2" t="s">
         <v>36</v>
       </c>
@@ -1040,7 +1046,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="3:6" ht="203" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" ht="201.6" x14ac:dyDescent="0.3">
       <c r="C47" s="2" t="s">
         <v>37</v>
       </c>
@@ -1048,7 +1054,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="51" spans="3:6" ht="41" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>38</v>
       </c>
@@ -1056,7 +1062,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C52" s="2" t="s">
         <v>39</v>
       </c>
@@ -1064,7 +1070,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C53" s="2" t="s">
         <v>40</v>
       </c>
@@ -1072,7 +1078,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:6" ht="72" x14ac:dyDescent="0.3">
       <c r="C54" s="2" t="s">
         <v>41</v>
       </c>
@@ -1080,7 +1086,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="3:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="C55" s="2" t="s">
         <v>42</v>
       </c>
@@ -1088,7 +1094,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="3:6" ht="116" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="C56" s="2" t="s">
         <v>43</v>
       </c>
@@ -1096,7 +1102,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="60" spans="3:6" ht="41" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>44</v>
       </c>
@@ -1104,7 +1110,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C61" s="2" t="s">
         <v>45</v>
       </c>
@@ -1112,7 +1118,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:6" ht="72" x14ac:dyDescent="0.3">
       <c r="C62" s="2" t="s">
         <v>46</v>
       </c>
@@ -1120,7 +1126,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C63" s="2" t="s">
         <v>47</v>
       </c>
@@ -1128,7 +1134,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C64" s="2" t="s">
         <v>48</v>
       </c>
@@ -1136,7 +1142,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C65" s="2" t="s">
         <v>49</v>
       </c>
@@ -1144,7 +1150,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C66" s="2" t="s">
         <v>50</v>
       </c>
@@ -1152,7 +1158,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="70" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>51</v>
       </c>
@@ -1160,7 +1166,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C71" s="2" t="s">
         <v>52</v>
       </c>
@@ -1168,7 +1174,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C72" s="2" t="s">
         <v>53</v>
       </c>
@@ -1176,7 +1182,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C73" s="2" t="s">
         <v>54</v>
       </c>
@@ -1184,7 +1190,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C74" s="2" t="s">
         <v>55</v>
       </c>
@@ -1192,7 +1198,7 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="78" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C78" s="1" t="s">
         <v>56</v>
       </c>
@@ -1200,7 +1206,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="3:6" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="C79" s="2" t="s">
         <v>57</v>
       </c>
@@ -1208,7 +1214,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="3:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="C80" s="2" t="s">
         <v>58</v>
       </c>
@@ -1216,7 +1222,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C81" s="2" t="s">
         <v>59</v>
       </c>
@@ -1224,7 +1230,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C82" s="2" t="s">
         <v>60</v>
       </c>
@@ -1232,7 +1238,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C83" s="2" t="s">
         <v>61</v>
       </c>
@@ -1240,7 +1246,7 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C84" s="2" t="s">
         <v>62</v>
       </c>
@@ -1248,7 +1254,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C85" s="2" t="s">
         <v>63</v>
       </c>
@@ -1256,7 +1262,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:6" ht="72" x14ac:dyDescent="0.3">
       <c r="C86" s="2" t="s">
         <v>64</v>
       </c>
@@ -1264,7 +1270,7 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C87" s="2" t="s">
         <v>65</v>
       </c>
@@ -1272,7 +1278,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="3:6" ht="116" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="C88" s="2" t="s">
         <v>66</v>
       </c>
@@ -1280,7 +1286,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="92" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>67</v>
       </c>
@@ -1288,7 +1294,7 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C93" s="2" t="s">
         <v>68</v>
       </c>
@@ -1296,7 +1302,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C94" s="2" t="s">
         <v>69</v>
       </c>
@@ -1304,7 +1310,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C95" s="2" t="s">
         <v>70</v>
       </c>
@@ -1312,7 +1318,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:6" ht="72" x14ac:dyDescent="0.3">
       <c r="C96" s="2" t="s">
         <v>71</v>
       </c>
@@ -1320,7 +1326,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C97" s="2" t="s">
         <v>72</v>
       </c>
@@ -1328,7 +1334,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C98" s="2" t="s">
         <v>73</v>
       </c>
@@ -1336,7 +1342,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C99" s="2" t="s">
         <v>74</v>
       </c>
@@ -1344,7 +1350,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="3:6" ht="145" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:6" ht="144" x14ac:dyDescent="0.3">
       <c r="C100" s="2" t="s">
         <v>75</v>
       </c>
@@ -1352,7 +1358,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C101" s="2" t="s">
         <v>76</v>
       </c>
@@ -1360,7 +1366,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C102" s="2" t="s">
         <v>77</v>
       </c>
@@ -1368,7 +1374,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="3:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:6" ht="72" x14ac:dyDescent="0.3">
       <c r="C103" s="2" t="s">
         <v>78</v>
       </c>
@@ -1376,7 +1382,7 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C104" s="2" t="s">
         <v>79</v>
       </c>
@@ -1384,7 +1390,7 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C105" s="2" t="s">
         <v>80</v>
       </c>
@@ -1392,7 +1398,7 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C106" s="2" t="s">
         <v>81</v>
       </c>
@@ -1400,7 +1406,7 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="110" spans="3:6" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C110" s="1" t="s">
         <v>82</v>
       </c>
@@ -1408,7 +1414,7 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="3:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C111" s="2" t="s">
         <v>48</v>
       </c>
@@ -1416,7 +1422,7 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:6" ht="72" x14ac:dyDescent="0.3">
       <c r="C112" s="2" t="s">
         <v>83</v>
       </c>
@@ -1424,7 +1430,7 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="3:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:6" ht="72" x14ac:dyDescent="0.3">
       <c r="C113" s="2" t="s">
         <v>84</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\the-ab-repositories\DSA-Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E3F470-8A1A-4AB2-8303-E8E373546ED1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D941F51D-0FEF-4E54-B158-B16C32F6BD49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
   <si>
     <t>Array</t>
   </si>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -918,6 +918,9 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
       <c r="C29" s="2" t="s">
         <v>22</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\the-ab-repositories\DSA-Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D941F51D-0FEF-4E54-B158-B16C32F6BD49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7382F7F-9E13-4358-8BFB-E00B4D7FCA55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
   <si>
     <t>Array</t>
   </si>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -929,6 +929,9 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
       <c r="C30" s="2" t="s">
         <v>23</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
   <si>
     <t xml:space="preserve">Difficulty</t>
   </si>
@@ -401,16 +401,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -675,803 +679,806 @@
   <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E64" activeCellId="0" sqref="E64"/>
+      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="86.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="5" t="n">
         <v>0.1477</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="5" t="n">
         <v>0.051</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="100.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="100.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="201" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="100.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="114.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
     </row>
     <row r="60" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="B61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="3" t="s">
+      <c r="B62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
     </row>
     <row r="63" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="3" t="s">
+      <c r="B63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
     </row>
     <row r="65" customFormat="false" ht="86.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="3" t="s">
+      <c r="B65" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
     </row>
     <row r="66" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
     </row>
     <row r="70" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
     </row>
     <row r="72" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
     </row>
     <row r="73" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
     </row>
     <row r="74" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
     </row>
     <row r="78" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="129" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
     </row>
     <row r="80" customFormat="false" ht="100.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
     </row>
     <row r="81" customFormat="false" ht="86.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
     </row>
     <row r="82" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
     </row>
     <row r="83" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
     </row>
     <row r="84" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
     </row>
     <row r="85" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
     </row>
     <row r="86" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
     </row>
     <row r="87" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
     </row>
     <row r="88" customFormat="false" ht="114.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
     </row>
     <row r="92" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
     </row>
     <row r="93" customFormat="false" ht="86.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
     </row>
     <row r="94" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
     </row>
     <row r="95" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
     </row>
     <row r="96" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
     </row>
     <row r="97" customFormat="false" ht="86.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
     </row>
     <row r="98" customFormat="false" ht="86.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
     </row>
     <row r="99" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
     </row>
     <row r="100" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
     </row>
     <row r="101" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
     </row>
     <row r="102" customFormat="false" ht="86.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
     </row>
     <row r="103" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
     </row>
     <row r="104" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
     </row>
     <row r="105" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
     </row>
     <row r="106" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
     </row>
     <row r="110" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
     </row>
     <row r="111" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
     </row>
     <row r="112" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
     </row>
     <row r="113" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="93">
   <si>
     <t xml:space="preserve">Difficulty</t>
   </si>
@@ -679,7 +679,7 @@
   <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65"/>
+      <selection pane="topLeft" activeCell="J65" activeCellId="0" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1174,6 +1174,9 @@
       <c r="F63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C64" s="4" t="s">
         <v>56</v>
       </c>
@@ -1182,7 +1185,7 @@
       <c r="F64" s="4"/>
     </row>
     <row r="65" customFormat="false" ht="86.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -1193,6 +1196,9 @@
       <c r="F65" s="4"/>
     </row>
     <row r="66" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C66" s="4" t="s">
         <v>58</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="93">
   <si>
     <t xml:space="preserve">Difficulty</t>
   </si>
@@ -678,8 +678,8 @@
   </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J65" activeCellId="0" sqref="J65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H34" activeCellId="0" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -997,6 +997,9 @@
       <c r="F33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C34" s="4" t="s">
         <v>35</v>
       </c>
@@ -1005,6 +1008,9 @@
       <c r="F34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C35" s="4" t="s">
         <v>36</v>
       </c>
@@ -1174,7 +1180,7 @@
       <c r="F63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -1196,7 +1202,7 @@
       <c r="F65" s="4"/>
     </row>
     <row r="66" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C66" s="4" t="s">

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="93">
   <si>
     <t xml:space="preserve">Difficulty</t>
   </si>
@@ -678,8 +678,8 @@
   </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J65" activeCellId="0" sqref="J65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -997,6 +997,9 @@
       <c r="F33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C34" s="4" t="s">
         <v>35</v>
       </c>
@@ -1005,6 +1008,9 @@
       <c r="F34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C35" s="4" t="s">
         <v>36</v>
       </c>
@@ -1174,7 +1180,7 @@
       <c r="F63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -1196,7 +1202,7 @@
       <c r="F65" s="4"/>
     </row>
     <row r="66" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C66" s="4" t="s">

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="93">
   <si>
     <t xml:space="preserve">Difficulty</t>
   </si>
@@ -678,8 +678,8 @@
   </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G93" activeCellId="0" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1349,6 +1349,9 @@
       <c r="F92" s="2"/>
     </row>
     <row r="93" customFormat="false" ht="86.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C93" s="4" t="s">
         <v>76</v>
       </c>
@@ -1357,6 +1360,9 @@
       <c r="F93" s="4"/>
     </row>
     <row r="94" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C94" s="4" t="s">
         <v>77</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="93">
   <si>
     <t xml:space="preserve">Difficulty</t>
   </si>
@@ -679,7 +679,7 @@
   <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G93" activeCellId="0" sqref="G93"/>
+      <selection pane="topLeft" activeCell="B96" activeCellId="0" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1371,6 +1371,9 @@
       <c r="F94" s="4"/>
     </row>
     <row r="95" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C95" s="4" t="s">
         <v>78</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="93">
   <si>
     <t xml:space="preserve">Difficulty</t>
   </si>
@@ -678,8 +678,8 @@
   </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B96" activeCellId="0" sqref="B96"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B99" activeCellId="0" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -997,7 +997,7 @@
       <c r="F33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -1008,7 +1008,7 @@
       <c r="F34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -1349,7 +1349,7 @@
       <c r="F92" s="2"/>
     </row>
     <row r="93" customFormat="false" ht="86.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C93" s="4" t="s">
@@ -1360,7 +1360,7 @@
       <c r="F93" s="4"/>
     </row>
     <row r="94" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C94" s="4" t="s">
@@ -1371,7 +1371,7 @@
       <c r="F94" s="4"/>
     </row>
     <row r="95" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -1390,6 +1390,9 @@
       <c r="F96" s="4"/>
     </row>
     <row r="97" customFormat="false" ht="86.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C97" s="4" t="s">
         <v>80</v>
       </c>
@@ -1406,6 +1409,9 @@
       <c r="F98" s="4"/>
     </row>
     <row r="99" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C99" s="4" t="s">
         <v>82</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="93">
   <si>
     <t xml:space="preserve">Difficulty</t>
   </si>
@@ -678,8 +678,8 @@
   </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B99" activeCellId="0" sqref="B99"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A98" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B101" activeCellId="0" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1390,7 +1390,7 @@
       <c r="F96" s="4"/>
     </row>
     <row r="97" customFormat="false" ht="86.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -1409,7 +1409,7 @@
       <c r="F98" s="4"/>
     </row>
     <row r="99" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C99" s="4" t="s">
@@ -1428,6 +1428,9 @@
       <c r="F100" s="4"/>
     </row>
     <row r="101" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C101" s="4" t="s">
         <v>84</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
   <si>
     <t xml:space="preserve">Difficulty</t>
   </si>
@@ -678,8 +678,8 @@
   </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A98" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B101" activeCellId="0" sqref="B101"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A101" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B104" activeCellId="0" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1420,6 +1420,9 @@
       <c r="F99" s="4"/>
     </row>
     <row r="100" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C100" s="4" t="s">
         <v>83</v>
       </c>
@@ -1439,6 +1442,9 @@
       <c r="F101" s="4"/>
     </row>
     <row r="102" customFormat="false" ht="86.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C102" s="4" t="s">
         <v>85</v>
       </c>
@@ -1447,6 +1453,9 @@
       <c r="F102" s="4"/>
     </row>
     <row r="103" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C103" s="4" t="s">
         <v>86</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
   <si>
     <t xml:space="preserve">Difficulty</t>
   </si>
@@ -678,7 +678,7 @@
   </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A101" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B104" activeCellId="0" sqref="B104"/>
     </sheetView>
   </sheetViews>
@@ -1420,7 +1420,7 @@
       <c r="F99" s="4"/>
     </row>
     <row r="100" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -1431,7 +1431,7 @@
       <c r="F100" s="4"/>
     </row>
     <row r="101" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C101" s="4" t="s">
@@ -1442,7 +1442,7 @@
       <c r="F101" s="4"/>
     </row>
     <row r="102" customFormat="false" ht="86.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C102" s="4" t="s">
@@ -1453,7 +1453,7 @@
       <c r="F102" s="4"/>
     </row>
     <row r="103" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C103" s="4" t="s">
@@ -1464,6 +1464,9 @@
       <c r="F103" s="4"/>
     </row>
     <row r="104" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C104" s="4" t="s">
         <v>87</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
   <si>
     <t xml:space="preserve">Difficulty</t>
   </si>
@@ -678,8 +678,8 @@
   </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B104" activeCellId="0" sqref="B104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B71" activeCellId="0" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1221,6 +1221,9 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C71" s="4" t="s">
         <v>60</v>
       </c>
@@ -1464,7 +1467,7 @@
       <c r="F103" s="4"/>
     </row>
     <row r="104" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C104" s="4" t="s">

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="93">
   <si>
     <t xml:space="preserve">Difficulty</t>
   </si>
@@ -678,8 +678,8 @@
   </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B71" activeCellId="0" sqref="B71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D85" activeCellId="0" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1221,7 +1221,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -1312,6 +1312,9 @@
       <c r="F84" s="4"/>
     </row>
     <row r="85" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C85" s="4" t="s">
         <v>71</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="93">
   <si>
     <t xml:space="preserve">Difficulty</t>
   </si>
@@ -678,8 +678,8 @@
   </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D85" activeCellId="0" sqref="D85"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B82" activeCellId="0" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1288,6 +1288,9 @@
       <c r="F81" s="4"/>
     </row>
     <row r="82" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C82" s="4" t="s">
         <v>68</v>
       </c>
@@ -1312,7 +1315,7 @@
       <c r="F84" s="4"/>
     </row>
     <row r="85" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C85" s="4" t="s">

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="93">
   <si>
     <t xml:space="preserve">Difficulty</t>
   </si>
@@ -678,8 +678,8 @@
   </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B82" activeCellId="0" sqref="B82"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B80" activeCellId="0" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1264,6 +1264,9 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="129" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C79" s="4" t="s">
         <v>65</v>
       </c>
@@ -1272,6 +1275,9 @@
       <c r="F79" s="4"/>
     </row>
     <row r="80" customFormat="false" ht="100.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C80" s="4" t="s">
         <v>66</v>
       </c>
@@ -1288,7 +1294,7 @@
       <c r="F81" s="4"/>
     </row>
     <row r="82" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C82" s="4" t="s">

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
   <si>
     <t xml:space="preserve">Difficulty</t>
   </si>
@@ -678,8 +678,8 @@
   </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B80" activeCellId="0" sqref="B80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C86" activeCellId="0" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1275,7 +1275,7 @@
       <c r="F79" s="4"/>
     </row>
     <row r="80" customFormat="false" ht="100.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -1305,6 +1305,9 @@
       <c r="F82" s="4"/>
     </row>
     <row r="83" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C83" s="4" t="s">
         <v>69</v>
       </c>
@@ -1313,6 +1316,9 @@
       <c r="F83" s="4"/>
     </row>
     <row r="84" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C84" s="4" t="s">
         <v>70</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
   <si>
     <t xml:space="preserve">Difficulty</t>
   </si>
@@ -678,8 +678,8 @@
   </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C86" activeCellId="0" sqref="C86"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F72" activeCellId="0" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1232,6 +1232,9 @@
       <c r="F71" s="4"/>
     </row>
     <row r="72" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C72" s="4" t="s">
         <v>61</v>
       </c>
@@ -1305,7 +1308,7 @@
       <c r="F82" s="4"/>
     </row>
     <row r="83" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C83" s="4" t="s">
@@ -1316,7 +1319,7 @@
       <c r="F83" s="4"/>
     </row>
     <row r="84" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C84" s="4" t="s">
@@ -1338,6 +1341,9 @@
       <c r="F85" s="4"/>
     </row>
     <row r="86" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C86" s="4" t="s">
         <v>72</v>
       </c>
@@ -1346,6 +1352,9 @@
       <c r="F86" s="4"/>
     </row>
     <row r="87" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C87" s="4" t="s">
         <v>73</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="93">
   <si>
     <t xml:space="preserve">Difficulty</t>
   </si>
@@ -679,7 +679,7 @@
   <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F72" activeCellId="0" sqref="F72"/>
+      <selection pane="topLeft" activeCell="H73" activeCellId="0" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1232,7 +1232,7 @@
       <c r="F71" s="4"/>
     </row>
     <row r="72" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -1243,6 +1243,9 @@
       <c r="F72" s="4"/>
     </row>
     <row r="73" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C73" s="4" t="s">
         <v>62</v>
       </c>
@@ -1341,7 +1344,7 @@
       <c r="F85" s="4"/>
     </row>
     <row r="86" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C86" s="4" t="s">
@@ -1352,7 +1355,7 @@
       <c r="F86" s="4"/>
     </row>
     <row r="87" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C87" s="4" t="s">

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="93">
   <si>
     <t xml:space="preserve">Difficulty</t>
   </si>
@@ -678,8 +678,8 @@
   </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H73" activeCellId="0" sqref="H73"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B76" activeCellId="0" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1243,7 +1243,7 @@
       <c r="F72" s="4"/>
     </row>
     <row r="73" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -1254,6 +1254,9 @@
       <c r="F73" s="4"/>
     </row>
     <row r="74" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C74" s="4" t="s">
         <v>63</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="93">
   <si>
     <t xml:space="preserve">Difficulty</t>
   </si>
@@ -678,8 +678,8 @@
   </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H73" activeCellId="0" sqref="H73"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1027,6 +1027,9 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C40" s="4" t="s">
         <v>38</v>
       </c>
@@ -1243,7 +1246,7 @@
       <c r="F72" s="4"/>
     </row>
     <row r="73" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="4" t="s">

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
   <si>
     <t xml:space="preserve">Difficulty</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t xml:space="preserve">Heap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maybe</t>
   </si>
   <si>
     <t xml:space="preserve">Top K Frequent Elements</t>
@@ -678,8 +681,8 @@
   </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B76" activeCellId="0" sqref="B76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A105" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F112" activeCellId="0" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1027,6 +1030,9 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C40" s="4" t="s">
         <v>38</v>
       </c>
@@ -1254,7 +1260,7 @@
       <c r="F73" s="4"/>
     </row>
     <row r="74" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -1295,6 +1301,9 @@
       <c r="F80" s="4"/>
     </row>
     <row r="81" customFormat="false" ht="86.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C81" s="4" t="s">
         <v>67</v>
       </c>
@@ -1535,6 +1544,9 @@
       <c r="F110" s="2"/>
     </row>
     <row r="111" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="0" t="s">
+        <v>91</v>
+      </c>
       <c r="C111" s="4" t="s">
         <v>56</v>
       </c>
@@ -1544,7 +1556,7 @@
     </row>
     <row r="112" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -1552,7 +1564,7 @@
     </row>
     <row r="113" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="93">
   <si>
     <t xml:space="preserve">Difficulty</t>
   </si>
@@ -293,9 +293,6 @@
   </si>
   <si>
     <t xml:space="preserve">Heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maybe</t>
   </si>
   <si>
     <t xml:space="preserve">Top K Frequent Elements</t>
@@ -681,8 +678,8 @@
   </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A105" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F112" activeCellId="0" sqref="F112"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A107" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B112" activeCellId="0" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1030,7 +1027,7 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -1301,7 +1298,7 @@
       <c r="F80" s="4"/>
     </row>
     <row r="81" customFormat="false" ht="86.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -1544,8 +1541,8 @@
       <c r="F110" s="2"/>
     </row>
     <row r="111" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="0" t="s">
-        <v>91</v>
+      <c r="B111" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>56</v>
@@ -1555,8 +1552,11 @@
       <c r="F111" s="4"/>
     </row>
     <row r="112" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C112" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="113" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="93">
   <si>
     <t xml:space="preserve">Difficulty</t>
   </si>
@@ -678,8 +678,8 @@
   </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A107" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B112" activeCellId="0" sqref="B112"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1102,6 +1102,9 @@
       <c r="F51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C52" s="4" t="s">
         <v>47</v>
       </c>
@@ -1552,7 +1555,7 @@
       <c r="F111" s="4"/>
     </row>
     <row r="112" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="0" t="s">
+      <c r="B112" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C112" s="4" t="s">

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="93">
   <si>
     <t xml:space="preserve">Difficulty</t>
   </si>
@@ -678,8 +678,8 @@
   </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A107" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B112" activeCellId="0" sqref="B112"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1102,6 +1102,9 @@
       <c r="F51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C52" s="4" t="s">
         <v>47</v>
       </c>
@@ -1110,6 +1113,9 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C53" s="4" t="s">
         <v>48</v>
       </c>
@@ -1118,6 +1124,9 @@
       <c r="F53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C54" s="4" t="s">
         <v>49</v>
       </c>
@@ -1552,7 +1561,7 @@
       <c r="F111" s="4"/>
     </row>
     <row r="112" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="0" t="s">
+      <c r="B112" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C112" s="4" t="s">

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="93">
   <si>
     <t xml:space="preserve">Difficulty</t>
   </si>
@@ -678,8 +678,8 @@
   </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1038,6 +1038,9 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C41" s="4" t="s">
         <v>39</v>
       </c>
@@ -1102,7 +1105,7 @@
       <c r="F51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -1113,7 +1116,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -1124,7 +1127,7 @@
       <c r="F53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="4" t="s">

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="93">
   <si>
     <t xml:space="preserve">Difficulty</t>
   </si>
@@ -679,7 +679,7 @@
   <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
+      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1038,7 +1038,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -1049,6 +1049,9 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C42" s="4" t="s">
         <v>40</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="93">
   <si>
     <t xml:space="preserve">Difficulty</t>
   </si>
@@ -678,8 +678,8 @@
   </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E43" activeCellId="0" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1049,7 +1049,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -1060,6 +1060,9 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C43" s="4" t="s">
         <v>41</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="93">
   <si>
     <t xml:space="preserve">Difficulty</t>
   </si>
@@ -679,7 +679,7 @@
   <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E43" activeCellId="0" sqref="E43"/>
+      <selection pane="topLeft" activeCell="G43" activeCellId="0" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1060,7 +1060,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -1071,6 +1071,9 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C44" s="4" t="s">
         <v>42</v>
       </c>

--- a/Blind75.xlsx
+++ b/Blind75.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632F8E3C-8B56-5646-845F-9D7C4A3F7C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F805EB-95AB-7842-A167-B443151AC10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="29920" windowHeight="18680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>Difficulty</t>
   </si>
   <si>
-    <t>Completion Status</t>
-  </si>
-  <si>
     <t>Array</t>
   </si>
   <si>
@@ -304,6 +301,9 @@
   </si>
   <si>
     <t>Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>Completed?</t>
   </si>
 </sst>
 </file>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -653,30 +653,30 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -684,10 +684,10 @@
     </row>
     <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -695,10 +695,10 @@
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -706,10 +706,10 @@
     </row>
     <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -717,10 +717,10 @@
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -728,10 +728,10 @@
     </row>
     <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -739,10 +739,10 @@
     </row>
     <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -750,10 +750,10 @@
     </row>
     <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -761,10 +761,10 @@
     </row>
     <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="4">
         <v>0.1477</v>
@@ -773,15 +773,15 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -789,7 +789,7 @@
     </row>
     <row r="15" spans="1:7" ht="22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -797,10 +797,10 @@
     </row>
     <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -808,10 +808,10 @@
     </row>
     <row r="17" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -819,10 +819,10 @@
     </row>
     <row r="18" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -830,10 +830,10 @@
     </row>
     <row r="19" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -841,10 +841,10 @@
     </row>
     <row r="20" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -852,7 +852,7 @@
     </row>
     <row r="24" spans="2:6" ht="44" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -860,10 +860,10 @@
     </row>
     <row r="25" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -871,10 +871,10 @@
     </row>
     <row r="26" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -882,10 +882,10 @@
     </row>
     <row r="27" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -893,10 +893,10 @@
     </row>
     <row r="28" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -904,10 +904,10 @@
     </row>
     <row r="29" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -915,10 +915,10 @@
     </row>
     <row r="30" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -926,10 +926,10 @@
     </row>
     <row r="31" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -937,10 +937,10 @@
     </row>
     <row r="32" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -948,10 +948,10 @@
     </row>
     <row r="33" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -959,10 +959,10 @@
     </row>
     <row r="34" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -970,10 +970,10 @@
     </row>
     <row r="35" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -981,7 +981,7 @@
     </row>
     <row r="39" spans="2:6" ht="22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -989,10 +989,10 @@
     </row>
     <row r="40" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -1000,10 +1000,10 @@
     </row>
     <row r="41" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="42" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -1022,10 +1022,10 @@
     </row>
     <row r="43" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1033,10 +1033,10 @@
     </row>
     <row r="44" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="45" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C45" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="46" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C46" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="47" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="C47" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="51" spans="2:6" ht="22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="52" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -1087,10 +1087,10 @@
     </row>
     <row r="53" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -1098,10 +1098,10 @@
     </row>
     <row r="54" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="55" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C55" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="56" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C56" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="60" spans="2:6" ht="22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -1133,10 +1133,10 @@
     </row>
     <row r="61" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -1144,10 +1144,10 @@
     </row>
     <row r="62" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -1155,10 +1155,10 @@
     </row>
     <row r="63" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -1166,10 +1166,10 @@
     </row>
     <row r="64" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -1177,10 +1177,10 @@
     </row>
     <row r="65" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="66" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="70" spans="2:6" ht="22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -1207,10 +1207,10 @@
     </row>
     <row r="71" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -1218,10 +1218,10 @@
     </row>
     <row r="72" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -1229,10 +1229,10 @@
     </row>
     <row r="73" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="74" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="78" spans="2:6" ht="22" x14ac:dyDescent="0.2">
       <c r="C78" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -1259,10 +1259,10 @@
     </row>
     <row r="79" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -1270,10 +1270,10 @@
     </row>
     <row r="80" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -1281,10 +1281,10 @@
     </row>
     <row r="81" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="82" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -1303,10 +1303,10 @@
     </row>
     <row r="83" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -1314,10 +1314,10 @@
     </row>
     <row r="84" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -1325,10 +1325,10 @@
     </row>
     <row r="85" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="86" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -1347,10 +1347,10 @@
     </row>
     <row r="87" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="88" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="C88" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="92" spans="2:6" ht="22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -1374,10 +1374,10 @@
     </row>
     <row r="93" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -1385,10 +1385,10 @@
     </row>
     <row r="94" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -1396,10 +1396,10 @@
     </row>
     <row r="95" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="96" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C96" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -1415,10 +1415,10 @@
     </row>
     <row r="97" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="98" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C98" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -1434,10 +1434,10 @@
     </row>
     <row r="99" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -1445,10 +1445,10 @@
     </row>
     <row r="100" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -1456,10 +1456,10 @@
     </row>
     <row r="101" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -1467,10 +1467,10 @@
     </row>
     <row r="102" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -1478,10 +1478,10 @@
     </row>
     <row r="103" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -1489,10 +1489,10 @@
     </row>
     <row r="104" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -1500,10 +1500,10 @@
     </row>
     <row r="105" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="106" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="110" spans="2:6" ht="22" x14ac:dyDescent="0.2">
       <c r="C110" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -1530,10 +1530,10 @@
     </row>
     <row r="111" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -1541,10 +1541,10 @@
     </row>
     <row r="112" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="113" spans="3:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C113" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
